--- a/data/hotels_by_city/Dallas/Dallas_shard_733.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_733.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="401">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,1086 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r550205535-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>55850</t>
+  </si>
+  <si>
+    <t>483324</t>
+  </si>
+  <si>
+    <t>550205535</t>
+  </si>
+  <si>
+    <t>12/30/2017</t>
+  </si>
+  <si>
+    <t>better signs</t>
+  </si>
+  <si>
+    <t>It was very difficult to find this location.  You need a sign on US Highway 80.  we drove right by it without seeing it.  This is an management/owner problem not an employee one. Otherwise it was an ok facility.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded January 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2018</t>
+  </si>
+  <si>
+    <t>It was very difficult to find this location.  You need a sign on US Highway 80.  we drove right by it without seeing it.  This is an management/owner problem not an employee one. Otherwise it was an ok facility.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r516079989-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>516079989</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>Pet friendly and clean</t>
+  </si>
+  <si>
+    <t>They only charge 20 for pets and the rooms were pet rooms but very clean and big. Only downside was our room was by the pool so we had noise until the pool closed, however no biggy, we still slept well. I would come againMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded August 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2017</t>
+  </si>
+  <si>
+    <t>They only charge 20 for pets and the rooms were pet rooms but very clean and big. Only downside was our room was by the pool so we had noise until the pool closed, however no biggy, we still slept well. I would come againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r515706224-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>515706224</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>Very nice rooms, friendly staff, and decent breakfast. I wish they had more protein items in the breakfast but overall it was good for a super 8. Good value for a quick stop in the middle of the night.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Very nice rooms, friendly staff, and decent breakfast. I wish they had more protein items in the breakfast but overall it was good for a super 8. Good value for a quick stop in the middle of the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r495015282-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>495015282</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Dirty and Stinky!</t>
+  </si>
+  <si>
+    <t>The room smelled of moth balls. If that was all I would be okay. But toilet was dirty with feces and there were crickets on my pillow. Also there was some weird decoration above the door!! Never again!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>The room smelled of moth balls. If that was all I would be okay. But toilet was dirty with feces and there were crickets on my pillow. Also there was some weird decoration above the door!! Never again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r471219451-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>471219451</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Super8Forney, Guest Relations Manager at Super 8 Forney, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r465640308-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>465640308</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>It was pleasant worth the money</t>
+  </si>
+  <si>
+    <t>We are moving from South Tx to North Tx so we have stayed at many hotels and motels in the process. Super 8 Forney was a great value for what we spent out of them all even though our room phone wasn't working everything else did the breakfast is typical Continental one. Room was clean everyone friendly and helpful. I would recommend staying there.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Super8Forney, Guest Relations Manager at Super 8 Forney, responded to this reviewResponded March 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2017</t>
+  </si>
+  <si>
+    <t>We are moving from South Tx to North Tx so we have stayed at many hotels and motels in the process. Super 8 Forney was a great value for what we spent out of them all even though our room phone wasn't working everything else did the breakfast is typical Continental one. Room was clean everyone friendly and helpful. I would recommend staying there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r438758638-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>438758638</t>
+  </si>
+  <si>
+    <t>11/20/2016</t>
+  </si>
+  <si>
+    <t>Don't stay here.</t>
+  </si>
+  <si>
+    <t>Usually I stay at the Best Western but they were full last night. One site gave the Super 8 a 4 so I gave it a chance. The water only got lukewarm for both pm and am shower. I smashed a baby water bug (where there are babies there are mommies). The breakfast was a joke. The restroom smelled of bleach and sour rags. I will never stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded December 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2016</t>
+  </si>
+  <si>
+    <t>Usually I stay at the Best Western but they were full last night. One site gave the Super 8 a 4 so I gave it a chance. The water only got lukewarm for both pm and am shower. I smashed a baby water bug (where there are babies there are mommies). The breakfast was a joke. The restroom smelled of bleach and sour rags. I will never stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r437092044-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>437092044</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>Below par Super 8</t>
+  </si>
+  <si>
+    <t>With only two hotels in Forney, I rolled the dice and chose the less expensive property. I should have realized something was amiss when I booked online and didn't receive a confirmation email. That first mistake cost me a night since I inadvertently booked the wrong night when the website defaulted to a different night and I only learned of the mistake when I checked in on the correct night. All the rooms, both floors, are accessed from the outside. The property is "pet friendly" and unfortunately our room smelled like dog urine. The television didn't work and a replacement was brought in from another room. My wife was a little frightened for her safety due to the presence of men sitting in a pickup near our room drinking beer and another man who pulled up beside us in an old and decrepit spray painted sedan without a muffler (loud enough to hear from inside our room) and proceeded to leave the motor running for a couple of hours while he did whatever he was doing at the motel. We saw the same man the next morning with tools and car parts spread all over the ground while he was working on his car in the parking lot. On the plus side, the bed was comfortable. With only two properties in town, and at a $100 per night, take my advice and choose the other one, or stay in a...With only two hotels in Forney, I rolled the dice and chose the less expensive property. I should have realized something was amiss when I booked online and didn't receive a confirmation email. That first mistake cost me a night since I inadvertently booked the wrong night when the website defaulted to a different night and I only learned of the mistake when I checked in on the correct night. All the rooms, both floors, are accessed from the outside. The property is "pet friendly" and unfortunately our room smelled like dog urine. The television didn't work and a replacement was brought in from another room. My wife was a little frightened for her safety due to the presence of men sitting in a pickup near our room drinking beer and another man who pulled up beside us in an old and decrepit spray painted sedan without a muffler (loud enough to hear from inside our room) and proceeded to leave the motor running for a couple of hours while he did whatever he was doing at the motel. We saw the same man the next morning with tools and car parts spread all over the ground while he was working on his car in the parking lot. On the plus side, the bed was comfortable. With only two properties in town, and at a $100 per night, take my advice and choose the other one, or stay in a nearby town.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded November 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2016</t>
+  </si>
+  <si>
+    <t>With only two hotels in Forney, I rolled the dice and chose the less expensive property. I should have realized something was amiss when I booked online and didn't receive a confirmation email. That first mistake cost me a night since I inadvertently booked the wrong night when the website defaulted to a different night and I only learned of the mistake when I checked in on the correct night. All the rooms, both floors, are accessed from the outside. The property is "pet friendly" and unfortunately our room smelled like dog urine. The television didn't work and a replacement was brought in from another room. My wife was a little frightened for her safety due to the presence of men sitting in a pickup near our room drinking beer and another man who pulled up beside us in an old and decrepit spray painted sedan without a muffler (loud enough to hear from inside our room) and proceeded to leave the motor running for a couple of hours while he did whatever he was doing at the motel. We saw the same man the next morning with tools and car parts spread all over the ground while he was working on his car in the parking lot. On the plus side, the bed was comfortable. With only two properties in town, and at a $100 per night, take my advice and choose the other one, or stay in a...With only two hotels in Forney, I rolled the dice and chose the less expensive property. I should have realized something was amiss when I booked online and didn't receive a confirmation email. That first mistake cost me a night since I inadvertently booked the wrong night when the website defaulted to a different night and I only learned of the mistake when I checked in on the correct night. All the rooms, both floors, are accessed from the outside. The property is "pet friendly" and unfortunately our room smelled like dog urine. The television didn't work and a replacement was brought in from another room. My wife was a little frightened for her safety due to the presence of men sitting in a pickup near our room drinking beer and another man who pulled up beside us in an old and decrepit spray painted sedan without a muffler (loud enough to hear from inside our room) and proceeded to leave the motor running for a couple of hours while he did whatever he was doing at the motel. We saw the same man the next morning with tools and car parts spread all over the ground while he was working on his car in the parking lot. On the plus side, the bed was comfortable. With only two properties in town, and at a $100 per night, take my advice and choose the other one, or stay in a nearby town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r429821060-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>429821060</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>Long Weekend Stay</t>
+  </si>
+  <si>
+    <t>We came down for the weekend to see the National Sprint Races at Devil's Bowl. The Motel was 10 -15 miles away.  Our room was Clean and Quiet.  If you are in to Antiques, you will find several to visit.  We will be staying again when we come down for the races.  VivianMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Super8Forney, Owner at Super 8 Forney, responded to this reviewResponded October 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2016</t>
+  </si>
+  <si>
+    <t>We came down for the weekend to see the National Sprint Races at Devil's Bowl. The Motel was 10 -15 miles away.  Our room was Clean and Quiet.  If you are in to Antiques, you will find several to visit.  We will be staying again when we come down for the races.  VivianMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r422302092-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>422302092</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>HORRIBLE....</t>
+  </si>
+  <si>
+    <t>My husband had 6 different surgeries at 10:30 they were knocking at the door for us to check out we ask for 30 mins. and we were denied and we are diamond members?!! Every insect u can think of in the room. Cudnt take a shower bc the filthy tub (the ENTIRE room for that matter). Under Cover Boss is what I wud suggest w/ALL these Wydom Reward hotel's!! Especially with these cheaper ones!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Super8Forney, Guest Relations Manager at Super 8 Forney, responded to this reviewResponded September 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2016</t>
+  </si>
+  <si>
+    <t>My husband had 6 different surgeries at 10:30 they were knocking at the door for us to check out we ask for 30 mins. and we were denied and we are diamond members?!! Every insect u can think of in the room. Cudnt take a shower bc the filthy tub (the ENTIRE room for that matter). Under Cover Boss is what I wud suggest w/ALL these Wydom Reward hotel's!! Especially with these cheaper ones!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r412813336-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>412813336</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>Not Good</t>
+  </si>
+  <si>
+    <t>When I went inside the hotel room, I notice a smell the permeated the room. I went to the front desk and explained there was a smell in the room. He stated that there was no smell, so he came down to the room and verify what I was saying. When he came to the room, he brought a key to another room.Well this room was not  any better; there was not a smell but the sink and shower drained slow, as a result, I had standing water in the shower and the sink.I did not stay my full time, I checked out the next morning and relocated to another hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Super8Forney, Guest Relations Manager at Super 8 Forney, responded to this reviewResponded September 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2016</t>
+  </si>
+  <si>
+    <t>When I went inside the hotel room, I notice a smell the permeated the room. I went to the front desk and explained there was a smell in the room. He stated that there was no smell, so he came down to the room and verify what I was saying. When he came to the room, he brought a key to another room.Well this room was not  any better; there was not a smell but the sink and shower drained slow, as a result, I had standing water in the shower and the sink.I did not stay my full time, I checked out the next morning and relocated to another hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r411639376-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>411639376</t>
+  </si>
+  <si>
+    <t>08/27/2016</t>
+  </si>
+  <si>
+    <t>Good Motel</t>
+  </si>
+  <si>
+    <t>Recently stayed at this Motel for 2 Nights twice within the last two weeks and have stayed here numerous times.  Room has always been clean. Front office and everyone working there are always nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Super8Forney, Owner at Super 8 Forney, responded to this reviewResponded September 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2016</t>
+  </si>
+  <si>
+    <t>Recently stayed at this Motel for 2 Nights twice within the last two weeks and have stayed here numerous times.  Room has always been clean. Front office and everyone working there are always nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r380876447-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>380876447</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded June 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r378667434-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>378667434</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded June 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r375451141-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>375451141</t>
+  </si>
+  <si>
+    <t>05/22/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pet friendly </t>
+  </si>
+  <si>
+    <t>Was a little Leary at first because this is a Wyndham property &amp; my last experience with their property was a Microtel and it was disgusting! This was a pet friendly hotel and the rooms were clean, they served not much of a Continental breakfast. They used styrofoam bowls &amp; plates we all know you are not suppose to use in the microwave. Couldn't use them for the oatmeal &amp; had a Texas shaped waffle indention on the plate from the Hot Waffle. The walk ways were very dirty so it made it look nasty from the outside Real convenient to a lot of restaurants and not too far from The Tanger Outlets. Easy access to the I20 &amp; Hwy 80. Could barley understand the front desk folks, but they were nice. If I had to revisit I would stay again because they let me bring my dogs... The rooms were clean and the lobby area is nice and cleanC.V - Atlanta, GAMoreShow less</t>
+  </si>
+  <si>
+    <t>Super8Forney, Guest Relations Manager at Super 8 Forney, responded to this reviewResponded May 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2016</t>
+  </si>
+  <si>
+    <t>Was a little Leary at first because this is a Wyndham property &amp; my last experience with their property was a Microtel and it was disgusting! This was a pet friendly hotel and the rooms were clean, they served not much of a Continental breakfast. They used styrofoam bowls &amp; plates we all know you are not suppose to use in the microwave. Couldn't use them for the oatmeal &amp; had a Texas shaped waffle indention on the plate from the Hot Waffle. The walk ways were very dirty so it made it look nasty from the outside Real convenient to a lot of restaurants and not too far from The Tanger Outlets. Easy access to the I20 &amp; Hwy 80. Could barley understand the front desk folks, but they were nice. If I had to revisit I would stay again because they let me bring my dogs... The rooms were clean and the lobby area is nice and cleanC.V - Atlanta, GAMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r357556041-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>357556041</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Clean!!!!</t>
+  </si>
+  <si>
+    <t>Very impressed with this Hotel! The rooms are spacious, clean, with refrigerator and microwave. Close to grocery store, DQ, and several convenience stores. Great place if you travel with pets as they have lots of space to walk your dogs. Small pet fee applies.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded March 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2016</t>
+  </si>
+  <si>
+    <t>Very impressed with this Hotel! The rooms are spacious, clean, with refrigerator and microwave. Close to grocery store, DQ, and several convenience stores. Great place if you travel with pets as they have lots of space to walk your dogs. Small pet fee applies.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r354202883-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>354202883</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded March 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r344526631-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>344526631</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>We got a flat tire on highway 80 and needed a place to stay over night until the mechanic shop opened the next morning. The staff were extremely friendly upon arrival. We were tired and exhausted but we were in our room within minutes of our arrival which was great. The rooms were big and very clean. Great room for the value.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded February 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2016</t>
+  </si>
+  <si>
+    <t>We got a flat tire on highway 80 and needed a place to stay over night until the mechanic shop opened the next morning. The staff were extremely friendly upon arrival. We were tired and exhausted but we were in our room within minutes of our arrival which was great. The rooms were big and very clean. Great room for the value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r340709635-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>340709635</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded January 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r337364375-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>337364375</t>
+  </si>
+  <si>
+    <t>01/04/2016</t>
+  </si>
+  <si>
+    <t>Motel shows a little age but clean. Internet worked but needed help from worker to get signed on. Did not go to the breakfast so no comment one way or other on that. Only real problem that I had was shower was luke warm.MoreShow less</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded January 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2016</t>
+  </si>
+  <si>
+    <t>Motel shows a little age but clean. Internet worked but needed help from worker to get signed on. Did not go to the breakfast so no comment one way or other on that. Only real problem that I had was shower was luke warm.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r335517541-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>335517541</t>
+  </si>
+  <si>
+    <t>12/28/2015</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Super8Forney, Guest Relations Manager at Super 8 Forney, responded to this reviewResponded December 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r303827273-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>303827273</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Super8Forney, Owner at Super 8 Forney, responded to this reviewResponded September 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r299117564-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>299117564</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded August 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r292493465-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>292493465</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>It served its purpose</t>
+  </si>
+  <si>
+    <t>We we're in town for a softball tournament and decided last minute to get a hotel. Although I wouldn't want to stay here longer than a night, it served it's purpose of preventing us from driving an hour and a half home, just to have to come back the next day. Rooms are decent. Shower felt good after 14 hours in the Texas heat.  On the other hand, our friends had to leave the this place because they had no air conditioning in thier room. It was set at 66 but was 85 in the room. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded August 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2015</t>
+  </si>
+  <si>
+    <t>We we're in town for a softball tournament and decided last minute to get a hotel. Although I wouldn't want to stay here longer than a night, it served it's purpose of preventing us from driving an hour and a half home, just to have to come back the next day. Rooms are decent. Shower felt good after 14 hours in the Texas heat.  On the other hand, our friends had to leave the this place because they had no air conditioning in thier room. It was set at 66 but was 85 in the room. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r287346162-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>287346162</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>Keep Driving</t>
+  </si>
+  <si>
+    <t>We were unimpressed with the room.  It felt dank and I cannot recommend the room.  I do have to say that the service was good in the morning.  We overslept the breakfast, and when the clerk in the front heard us talking, she got breakfast danishes for my children.MoreShow less</t>
+  </si>
+  <si>
+    <t>Super8Forney, Owner at Super 8 Forney, responded to this reviewResponded July 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2015</t>
+  </si>
+  <si>
+    <t>We were unimpressed with the room.  It felt dank and I cannot recommend the room.  I do have to say that the service was good in the morning.  We overslept the breakfast, and when the clerk in the front heard us talking, she got breakfast danishes for my children.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r286142974-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>286142974</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>My family and I stayed in room 209 over the Independence Day weekend. The hotel was clean and quiet. The pool was nice. My only complaint was that there was no hot water. So we took lukewarm showers. The free breakfast was good except the cereal was stale. We were within walking distance from 2 gas stations, a grocery store, and fast food restaurants. I would definately stay again MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded July 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2015</t>
+  </si>
+  <si>
+    <t>My family and I stayed in room 209 over the Independence Day weekend. The hotel was clean and quiet. The pool was nice. My only complaint was that there was no hot water. So we took lukewarm showers. The free breakfast was good except the cereal was stale. We were within walking distance from 2 gas stations, a grocery store, and fast food restaurants. I would definately stay again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r284465057-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>284465057</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Will never stay here again.. Had 3 rooms in one visit. The...</t>
+  </si>
+  <si>
+    <t>Will never stay here again.. Had 3 rooms in one visit. The first room soon as I got in the fro t office called and told me they were changing the room cause she thought something was wrong with it. Then the room the did give us the hot water didn't work so they gave me a key to take a shower in another room.  MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded July 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2015</t>
+  </si>
+  <si>
+    <t>Will never stay here again.. Had 3 rooms in one visit. The first room soon as I got in the fro t office called and told me they were changing the room cause she thought something was wrong with it. Then the room the did give us the hot water didn't work so they gave me a key to take a shower in another room.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r240458387-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>240458387</t>
+  </si>
+  <si>
+    <t>11/18/2014</t>
+  </si>
+  <si>
+    <t>Shower with the Bugs</t>
+  </si>
+  <si>
+    <t>I've stayed at this property a few times, and while it's nothing to write home about, the bugs crawling around the bathroom will keep me away for good from now on. When I checked in, there were none in the bathroom, though I did find a dead bug carcass in the corner. A little black beetle sort of thing. 
+When I woke the next morning and went to take a shower, the entire bathroom was crawling with them. 20 or so, at least. I had to shake three off of the shower curtain, and wash four others down the drain. I took my shower and left. 
+The room was big, the furniture was decent. The bed was comfortable enough and the internet worked well, for what I used it for: checking email. Very dated, with several places along the base boards where the wall was showing damage. Rot, maybe? Not sure. I didn't get close enough to tell. The staff at check in was very friendly and the area where the breakfast was held looked good from a distance. I did not eat breakfast, so I cannot comment on that portion. 
+I did not report the bug problem to the staff. However, based upon the dead one I found at check in, I would assume they are well aware of the issue. The room was clean when I arrived. However, I shudder to think what was crawling around all night...I've stayed at this property a few times, and while it's nothing to write home about, the bugs crawling around the bathroom will keep me away for good from now on. When I checked in, there were none in the bathroom, though I did find a dead bug carcass in the corner. A little black beetle sort of thing. When I woke the next morning and went to take a shower, the entire bathroom was crawling with them. 20 or so, at least. I had to shake three off of the shower curtain, and wash four others down the drain. I took my shower and left. The room was big, the furniture was decent. The bed was comfortable enough and the internet worked well, for what I used it for: checking email. Very dated, with several places along the base boards where the wall was showing damage. Rot, maybe? Not sure. I didn't get close enough to tell. The staff at check in was very friendly and the area where the breakfast was held looked good from a distance. I did not eat breakfast, so I cannot comment on that portion. I did not report the bug problem to the staff. However, based upon the dead one I found at check in, I would assume they are well aware of the issue. The room was clean when I arrived. However, I shudder to think what was crawling around all night while I was sleeping. A $69 dollar rate for one night will not bring me back, as I prefer to shower without the bugsMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded November 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2014</t>
+  </si>
+  <si>
+    <t>I've stayed at this property a few times, and while it's nothing to write home about, the bugs crawling around the bathroom will keep me away for good from now on. When I checked in, there were none in the bathroom, though I did find a dead bug carcass in the corner. A little black beetle sort of thing. 
+When I woke the next morning and went to take a shower, the entire bathroom was crawling with them. 20 or so, at least. I had to shake three off of the shower curtain, and wash four others down the drain. I took my shower and left. 
+The room was big, the furniture was decent. The bed was comfortable enough and the internet worked well, for what I used it for: checking email. Very dated, with several places along the base boards where the wall was showing damage. Rot, maybe? Not sure. I didn't get close enough to tell. The staff at check in was very friendly and the area where the breakfast was held looked good from a distance. I did not eat breakfast, so I cannot comment on that portion. 
+I did not report the bug problem to the staff. However, based upon the dead one I found at check in, I would assume they are well aware of the issue. The room was clean when I arrived. However, I shudder to think what was crawling around all night...I've stayed at this property a few times, and while it's nothing to write home about, the bugs crawling around the bathroom will keep me away for good from now on. When I checked in, there were none in the bathroom, though I did find a dead bug carcass in the corner. A little black beetle sort of thing. When I woke the next morning and went to take a shower, the entire bathroom was crawling with them. 20 or so, at least. I had to shake three off of the shower curtain, and wash four others down the drain. I took my shower and left. The room was big, the furniture was decent. The bed was comfortable enough and the internet worked well, for what I used it for: checking email. Very dated, with several places along the base boards where the wall was showing damage. Rot, maybe? Not sure. I didn't get close enough to tell. The staff at check in was very friendly and the area where the breakfast was held looked good from a distance. I did not eat breakfast, so I cannot comment on that portion. I did not report the bug problem to the staff. However, based upon the dead one I found at check in, I would assume they are well aware of the issue. The room was clean when I arrived. However, I shudder to think what was crawling around all night while I was sleeping. A $69 dollar rate for one night will not bring me back, as I prefer to shower without the bugsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r228170299-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>228170299</t>
+  </si>
+  <si>
+    <t>09/10/2014</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r220552144-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>220552144</t>
+  </si>
+  <si>
+    <t>08/08/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r208587276-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>208587276</t>
+  </si>
+  <si>
+    <t>06/02/2014</t>
+  </si>
+  <si>
+    <t>Property is in need of freshening. Handicap room was...</t>
+  </si>
+  <si>
+    <t>Property is in need of freshening. Handicap room was cobbled together. No ice machine, older television. Staff very helpful and courteous.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded June 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2014</t>
+  </si>
+  <si>
+    <t>Property is in need of freshening. Handicap room was cobbled together. No ice machine, older television. Staff very helpful and courteous.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r207038315-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>207038315</t>
+  </si>
+  <si>
+    <t>05/25/2014</t>
+  </si>
+  <si>
+    <t>Doctor appointment</t>
+  </si>
+  <si>
+    <t>The room was good. It was clean and the staff was great! Great price and a nice pool. We have used this hotel many times and always feel safe. MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was good. It was clean and the staff was great! Great price and a nice pool. We have used this hotel many times and always feel safe. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r186834774-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>186834774</t>
+  </si>
+  <si>
+    <t>12/05/2013</t>
+  </si>
+  <si>
+    <t>refund needed</t>
+  </si>
+  <si>
+    <t>no internet, water leak, toilet would not flush, no hot water just warm etc. changed rooms , still no wifi even with a cable, cabinet fell apart, had to use my own batteries in t.v remote, just terrible stayMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>no internet, water leak, toilet would not flush, no hot water just warm etc. changed rooms , still no wifi even with a cable, cabinet fell apart, had to use my own batteries in t.v remote, just terrible stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r186179743-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>186179743</t>
+  </si>
+  <si>
+    <t>11/28/2013</t>
+  </si>
+  <si>
+    <t>Great rooms and excellent staff</t>
+  </si>
+  <si>
+    <t>My family of 7 is very picky about hotels. In the last 10 years we've always stayed at Marriott Hotels. We had vehicle issues and HAD to stop here, the nearest motel. This Super 8 was clean and the man at front desk was GREAT!  He let us stay after checkout while we were getting our truck fixed. Definitely would stay here again!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Pankaj K, Manager at Super 8 Forney, responded to this reviewResponded December 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2013</t>
+  </si>
+  <si>
+    <t>My family of 7 is very picky about hotels. In the last 10 years we've always stayed at Marriott Hotels. We had vehicle issues and HAD to stop here, the nearest motel. This Super 8 was clean and the man at front desk was GREAT!  He let us stay after checkout while we were getting our truck fixed. Definitely would stay here again!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r178959575-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>178959575</t>
+  </si>
+  <si>
+    <t>09/28/2013</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Spent two nights here.   It is conveniently located on the main highway.  The room was clean and the staff was very pleasant and helpful!!!   I will stay here again!!!!   A pleasant experience!!!!   I would definitely recommend it to my friends!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Pankaj K, Manager at Super 8 Forney, responded to this reviewResponded October 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2013</t>
+  </si>
+  <si>
+    <t>Spent two nights here.   It is conveniently located on the main highway.  The room was clean and the staff was very pleasant and helpful!!!   I will stay here again!!!!   A pleasant experience!!!!   I would definitely recommend it to my friends!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r177601814-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>177601814</t>
+  </si>
+  <si>
+    <t>09/17/2013</t>
+  </si>
+  <si>
+    <t>Great hotel for the price</t>
+  </si>
+  <si>
+    <t>We stay at this hotel the same time every year and this year we were very pleased !! The rooms were upgraded, the pool was sparkling, the breakfast MUCH better, the beds comfortable and the hotel staff actually was very friendly. The only problem we had was the water was warm and not hot at all but otherwise we will stay here again !! MoreShow less</t>
+  </si>
+  <si>
+    <t>We stay at this hotel the same time every year and this year we were very pleased !! The rooms were upgraded, the pool was sparkling, the breakfast MUCH better, the beds comfortable and the hotel staff actually was very friendly. The only problem we had was the water was warm and not hot at all but otherwise we will stay here again !! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r169031635-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>169031635</t>
+  </si>
+  <si>
+    <t>07/25/2013</t>
+  </si>
+  <si>
+    <t>Clean and Friendly</t>
+  </si>
+  <si>
+    <t>Wonderful spacious, clean room with great king-size bed and lots of tv channels &amp; small refrigerator. Seems to be like recently remodeled with fresh paint, Great room for a traveling couple or family. Clean and well-maintained bathroom facilities which is what most concerns me while staying out. Very nice breakfast. Friendly staff. Would gladly stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Pankaj K, Manager at Super 8 Forney, responded to this reviewResponded August 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2013</t>
+  </si>
+  <si>
+    <t>Wonderful spacious, clean room with great king-size bed and lots of tv channels &amp; small refrigerator. Seems to be like recently remodeled with fresh paint, Great room for a traveling couple or family. Clean and well-maintained bathroom facilities which is what most concerns me while staying out. Very nice breakfast. Friendly staff. Would gladly stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r168983872-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>168983872</t>
+  </si>
+  <si>
+    <t>Poor A/C</t>
+  </si>
+  <si>
+    <t>I always include the room I occupy for the business traveler.  I stayed in room 203 at the top of the stairs and the air conditioning was inadequate for a really good night's sleep.  The room did not become comfortable until 1:30 in the morning-yes, after midnight!MoreShow less</t>
+  </si>
+  <si>
+    <t>I always include the room I occupy for the business traveler.  I stayed in room 203 at the top of the stairs and the air conditioning was inadequate for a really good night's sleep.  The room did not become comfortable until 1:30 in the morning-yes, after midnight!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r167396341-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>167396341</t>
+  </si>
+  <si>
+    <t>07/13/2013</t>
+  </si>
+  <si>
+    <t>Great Motel</t>
+  </si>
+  <si>
+    <t>This is a comfortable and clean hotel. I have stayed here multiple times over the past four years and plan my route to be here for the night. The owners are friendly, helpful and just nice people. And the price! Can't beat it for twice the money. This is a terrific hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>Pankaj K, Manager at Super 8 Forney, responded to this reviewResponded July 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2013</t>
+  </si>
+  <si>
+    <t>This is a comfortable and clean hotel. I have stayed here multiple times over the past four years and plan my route to be here for the night. The owners are friendly, helpful and just nice people. And the price! Can't beat it for twice the money. This is a terrific hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r163565056-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>163565056</t>
+  </si>
+  <si>
+    <t>06/10/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Pankaj K, Manager at Super 8 Forney, responded to this reviewResponded June 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r159252414-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>159252414</t>
+  </si>
+  <si>
+    <t>04/30/2013</t>
+  </si>
+  <si>
+    <t>Clean, convenient, and priced right.</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here after a long night traveling. It was easy to find with no hassle getting our room. Room was large and spacious. Would have liked better parking. It you're not hauling anything, this is no issue. I would recommend this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Pankaj K, Manager at Super 8 Forney, responded to this reviewResponded May 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2013</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here after a long night traveling. It was easy to find with no hassle getting our room. Room was large and spacious. Would have liked better parking. It you're not hauling anything, this is no issue. I would recommend this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r158480166-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>158480166</t>
+  </si>
+  <si>
+    <t>04/22/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r153277847-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>153277847</t>
+  </si>
+  <si>
+    <t>02/27/2013</t>
+  </si>
+  <si>
+    <t>beware!</t>
+  </si>
+  <si>
+    <t>hole in room wall, slick disabled shower floor, tv remote required constant re-programming. All carbo breakfast. toilet plugged, staff had us unplug. It is cheap, you get what you pay for... other guests had to ask for extra towels, and staff acted like they were stealing.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Pankaj K, Manager at Super 8 Forney, responded to this reviewResponded March 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2013</t>
+  </si>
+  <si>
+    <t>hole in room wall, slick disabled shower floor, tv remote required constant re-programming. All carbo breakfast. toilet plugged, staff had us unplug. It is cheap, you get what you pay for... other guests had to ask for extra towels, and staff acted like they were stealing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r144961565-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>144961565</t>
+  </si>
+  <si>
+    <t>11/08/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Pankaj K, Manager at Super 8 Forney, responded to this reviewResponded December 15, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r138442568-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>138442568</t>
+  </si>
+  <si>
+    <t>08/26/2012</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>The room was clean and updated. The beds were so cozy that I couldnt even wake up the next morning! Breakfast consisted of pastries, fruits, yogurt, HOT WAFFLES, and much more! The staff was extremely nice and helpful. For half the price of the Best Western across the highway, the Super 8 was perfect!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Pankaj K, General Manager at Super 8 Forney, responded to this reviewResponded September 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2012</t>
+  </si>
+  <si>
+    <t>The room was clean and updated. The beds were so cozy that I couldnt even wake up the next morning! Breakfast consisted of pastries, fruits, yogurt, HOT WAFFLES, and much more! The staff was extremely nice and helpful. For half the price of the Best Western across the highway, the Super 8 was perfect!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r37713307-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>37713307</t>
+  </si>
+  <si>
+    <t>08/14/2009</t>
+  </si>
+  <si>
+    <t>Excellent!</t>
+  </si>
+  <si>
+    <t>During our stay here service was exceptional from the front desk to house keeping, they were great. And the rooms were clean! This hotel should be rated a four star...MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>manav1, General Manager at Super 8 Forney, responded to this reviewResponded July 24, 2011</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2011</t>
+  </si>
+  <si>
+    <t>During our stay here service was exceptional from the front desk to house keeping, they were great. And the rooms were clean! This hotel should be rated a four star...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r3767126-Super_8_Forney-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>3767126</t>
+  </si>
+  <si>
+    <t>08/14/2005</t>
+  </si>
+  <si>
+    <t>Great Budget Hotel</t>
+  </si>
+  <si>
+    <t>Excellant! Price was great! Would not hesitate to recommend. Room was clean and not worn. Staff was extremely friendly and helpful. Least expensive place we stayed on vacation.MoreShow less</t>
+  </si>
+  <si>
+    <t>Excellant! Price was great! Would not hesitate to recommend. Room was clean and not worn. Staff was extremely friendly and helpful. Least expensive place we stayed on vacation.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1725,3181 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>62</v>
+      </c>
+      <c r="X4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>113</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" t="s">
+        <v>113</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>123</v>
+      </c>
+      <c r="X10" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>132</v>
+      </c>
+      <c r="X11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>140</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>141</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>155</v>
+      </c>
+      <c r="O14" t="s">
+        <v>113</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>161</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>162</v>
+      </c>
+      <c r="X15" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>161</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>169</v>
+      </c>
+      <c r="X16" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17" t="s">
+        <v>174</v>
+      </c>
+      <c r="K17" t="s">
+        <v>175</v>
+      </c>
+      <c r="L17" t="s">
+        <v>176</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>177</v>
+      </c>
+      <c r="O17" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>178</v>
+      </c>
+      <c r="X17" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18" t="s">
+        <v>183</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>184</v>
+      </c>
+      <c r="X18" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" t="s">
+        <v>190</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>191</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>192</v>
+      </c>
+      <c r="X19" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>198</v>
+      </c>
+      <c r="O20" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>199</v>
+      </c>
+      <c r="X20" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" t="s">
+        <v>203</v>
+      </c>
+      <c r="K21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" t="s">
+        <v>204</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>198</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>205</v>
+      </c>
+      <c r="X21" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s">
+        <v>85</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>211</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>212</v>
+      </c>
+      <c r="X22" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>215</v>
+      </c>
+      <c r="J23" t="s">
+        <v>216</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s">
+        <v>85</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>217</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>218</v>
+      </c>
+      <c r="X23" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s">
+        <v>85</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>217</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>223</v>
+      </c>
+      <c r="X24" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>226</v>
+      </c>
+      <c r="J25" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" t="s">
+        <v>228</v>
+      </c>
+      <c r="L25" t="s">
+        <v>229</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>230</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>231</v>
+      </c>
+      <c r="X25" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>235</v>
+      </c>
+      <c r="J26" t="s">
+        <v>236</v>
+      </c>
+      <c r="K26" t="s">
+        <v>237</v>
+      </c>
+      <c r="L26" t="s">
+        <v>238</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>230</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>239</v>
+      </c>
+      <c r="X26" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>243</v>
+      </c>
+      <c r="J27" t="s">
+        <v>244</v>
+      </c>
+      <c r="K27" t="s">
+        <v>245</v>
+      </c>
+      <c r="L27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>230</v>
+      </c>
+      <c r="O27" t="s">
+        <v>247</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>248</v>
+      </c>
+      <c r="X27" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>251</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>252</v>
+      </c>
+      <c r="J28" t="s">
+        <v>253</v>
+      </c>
+      <c r="K28" t="s">
+        <v>254</v>
+      </c>
+      <c r="L28" t="s">
+        <v>255</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>256</v>
+      </c>
+      <c r="O28" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>257</v>
+      </c>
+      <c r="X28" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>260</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>261</v>
+      </c>
+      <c r="J29" t="s">
+        <v>262</v>
+      </c>
+      <c r="K29" t="s">
+        <v>263</v>
+      </c>
+      <c r="L29" t="s">
+        <v>264</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>265</v>
+      </c>
+      <c r="O29" t="s">
+        <v>70</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>266</v>
+      </c>
+      <c r="X29" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>269</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J30" t="s">
+        <v>271</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s">
+        <v>85</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>272</v>
+      </c>
+      <c r="O30" t="s">
+        <v>78</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>266</v>
+      </c>
+      <c r="X30" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>273</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>274</v>
+      </c>
+      <c r="J31" t="s">
+        <v>275</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s">
+        <v>85</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>276</v>
+      </c>
+      <c r="O31" t="s">
+        <v>78</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>266</v>
+      </c>
+      <c r="X31" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>277</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>278</v>
+      </c>
+      <c r="J32" t="s">
+        <v>279</v>
+      </c>
+      <c r="K32" t="s">
+        <v>280</v>
+      </c>
+      <c r="L32" t="s">
+        <v>281</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>282</v>
+      </c>
+      <c r="O32" t="s">
+        <v>78</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>283</v>
+      </c>
+      <c r="X32" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>286</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>287</v>
+      </c>
+      <c r="J33" t="s">
+        <v>288</v>
+      </c>
+      <c r="K33" t="s">
+        <v>289</v>
+      </c>
+      <c r="L33" t="s">
+        <v>290</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>282</v>
+      </c>
+      <c r="O33" t="s">
+        <v>113</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>283</v>
+      </c>
+      <c r="X33" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>292</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>293</v>
+      </c>
+      <c r="J34" t="s">
+        <v>294</v>
+      </c>
+      <c r="K34" t="s">
+        <v>295</v>
+      </c>
+      <c r="L34" t="s">
+        <v>296</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>297</v>
+      </c>
+      <c r="O34" t="s">
+        <v>113</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>283</v>
+      </c>
+      <c r="X34" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>299</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>300</v>
+      </c>
+      <c r="J35" t="s">
+        <v>301</v>
+      </c>
+      <c r="K35" t="s">
+        <v>302</v>
+      </c>
+      <c r="L35" t="s">
+        <v>303</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>304</v>
+      </c>
+      <c r="X35" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>307</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>308</v>
+      </c>
+      <c r="J36" t="s">
+        <v>309</v>
+      </c>
+      <c r="K36" t="s">
+        <v>310</v>
+      </c>
+      <c r="L36" t="s">
+        <v>311</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>312</v>
+      </c>
+      <c r="O36" t="s">
+        <v>247</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>313</v>
+      </c>
+      <c r="X36" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>316</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>317</v>
+      </c>
+      <c r="J37" t="s">
+        <v>318</v>
+      </c>
+      <c r="K37" t="s">
+        <v>319</v>
+      </c>
+      <c r="L37" t="s">
+        <v>320</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>312</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>313</v>
+      </c>
+      <c r="X37" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>322</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>323</v>
+      </c>
+      <c r="J38" t="s">
+        <v>324</v>
+      </c>
+      <c r="K38" t="s">
+        <v>325</v>
+      </c>
+      <c r="L38" t="s">
+        <v>326</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>327</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>328</v>
+      </c>
+      <c r="X38" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>331</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>332</v>
+      </c>
+      <c r="J39" t="s">
+        <v>324</v>
+      </c>
+      <c r="K39" t="s">
+        <v>333</v>
+      </c>
+      <c r="L39" t="s">
+        <v>334</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>327</v>
+      </c>
+      <c r="O39" t="s">
+        <v>78</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>328</v>
+      </c>
+      <c r="X39" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>336</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>337</v>
+      </c>
+      <c r="J40" t="s">
+        <v>338</v>
+      </c>
+      <c r="K40" t="s">
+        <v>339</v>
+      </c>
+      <c r="L40" t="s">
+        <v>340</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>341</v>
+      </c>
+      <c r="X40" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>344</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>345</v>
+      </c>
+      <c r="J41" t="s">
+        <v>346</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s">
+        <v>85</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>347</v>
+      </c>
+      <c r="O41" t="s">
+        <v>70</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>348</v>
+      </c>
+      <c r="X41" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>350</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>351</v>
+      </c>
+      <c r="J42" t="s">
+        <v>352</v>
+      </c>
+      <c r="K42" t="s">
+        <v>353</v>
+      </c>
+      <c r="L42" t="s">
+        <v>354</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>355</v>
+      </c>
+      <c r="X42" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>358</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>359</v>
+      </c>
+      <c r="J43" t="s">
+        <v>360</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s">
+        <v>85</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>361</v>
+      </c>
+      <c r="O43" t="s">
+        <v>70</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>355</v>
+      </c>
+      <c r="X43" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>362</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>363</v>
+      </c>
+      <c r="J44" t="s">
+        <v>364</v>
+      </c>
+      <c r="K44" t="s">
+        <v>365</v>
+      </c>
+      <c r="L44" t="s">
+        <v>366</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>367</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>368</v>
+      </c>
+      <c r="X44" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>371</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>372</v>
+      </c>
+      <c r="J45" t="s">
+        <v>373</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s">
+        <v>85</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>374</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>375</v>
+      </c>
+      <c r="X45" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>377</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>378</v>
+      </c>
+      <c r="J46" t="s">
+        <v>379</v>
+      </c>
+      <c r="K46" t="s">
+        <v>380</v>
+      </c>
+      <c r="L46" t="s">
+        <v>381</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>382</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>383</v>
+      </c>
+      <c r="X46" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>386</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>387</v>
+      </c>
+      <c r="J47" t="s">
+        <v>388</v>
+      </c>
+      <c r="K47" t="s">
+        <v>389</v>
+      </c>
+      <c r="L47" t="s">
+        <v>390</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>391</v>
+      </c>
+      <c r="O47" t="s">
+        <v>113</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>392</v>
+      </c>
+      <c r="X47" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>395</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>396</v>
+      </c>
+      <c r="J48" t="s">
+        <v>397</v>
+      </c>
+      <c r="K48" t="s">
+        <v>398</v>
+      </c>
+      <c r="L48" t="s">
+        <v>399</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>392</v>
+      </c>
+      <c r="X48" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_733.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_733.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="448">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>brianoJ654IS</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>It was very difficult to find this location.  You need a sign on US Highway 80.  we drove right by it without seeing it.  This is an management/owner problem not an employee one. Otherwise it was an ok facility.More</t>
   </si>
   <si>
+    <t>susanmaxreed</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r516079989-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>They only charge 20 for pets and the rooms were pet rooms but very clean and big. Only downside was our room was by the pool so we had noise until the pool closed, however no biggy, we still slept well. I would come againMore</t>
   </si>
   <si>
+    <t>jospehranch12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r515706224-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t>Very nice rooms, friendly staff, and decent breakfast. I wish they had more protein items in the breakfast but overall it was good for a super 8. Good value for a quick stop in the middle of the night.More</t>
   </si>
   <si>
+    <t>Ruth B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r495015282-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -264,6 +276,9 @@
     <t>The room smelled of moth balls. If that was all I would be okay. But toilet was dirty with feces and there were crickets on my pillow. Also there was some weird decoration above the door!! Never again!More</t>
   </si>
   <si>
+    <t>407raymondl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r471219451-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -288,6 +303,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>SherryWSmith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r465640308-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -315,6 +333,9 @@
     <t>We are moving from South Tx to North Tx so we have stayed at many hotels and motels in the process. Super 8 Forney was a great value for what we spent out of them all even though our room phone wasn't working everything else did the breakfast is typical Continental one. Room was clean everyone friendly and helpful. I would recommend staying there.More</t>
   </si>
   <si>
+    <t>Trish Pat A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r438758638-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -342,6 +363,9 @@
     <t>Usually I stay at the Best Western but they were full last night. One site gave the Super 8 a 4 so I gave it a chance. The water only got lukewarm for both pm and am shower. I smashed a baby water bug (where there are babies there are mommies). The breakfast was a joke. The restroom smelled of bleach and sour rags. I will never stay here again.More</t>
   </si>
   <si>
+    <t>Kim H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r437092044-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -369,6 +393,9 @@
     <t>With only two hotels in Forney, I rolled the dice and chose the less expensive property. I should have realized something was amiss when I booked online and didn't receive a confirmation email. That first mistake cost me a night since I inadvertently booked the wrong night when the website defaulted to a different night and I only learned of the mistake when I checked in on the correct night. All the rooms, both floors, are accessed from the outside. The property is "pet friendly" and unfortunately our room smelled like dog urine. The television didn't work and a replacement was brought in from another room. My wife was a little frightened for her safety due to the presence of men sitting in a pickup near our room drinking beer and another man who pulled up beside us in an old and decrepit spray painted sedan without a muffler (loud enough to hear from inside our room) and proceeded to leave the motor running for a couple of hours while he did whatever he was doing at the motel. We saw the same man the next morning with tools and car parts spread all over the ground while he was working on his car in the parking lot. On the plus side, the bed was comfortable. With only two properties in town, and at a $100 per night, take my advice and choose the other one, or stay in a...With only two hotels in Forney, I rolled the dice and chose the less expensive property. I should have realized something was amiss when I booked online and didn't receive a confirmation email. That first mistake cost me a night since I inadvertently booked the wrong night when the website defaulted to a different night and I only learned of the mistake when I checked in on the correct night. All the rooms, both floors, are accessed from the outside. The property is "pet friendly" and unfortunately our room smelled like dog urine. The television didn't work and a replacement was brought in from another room. My wife was a little frightened for her safety due to the presence of men sitting in a pickup near our room drinking beer and another man who pulled up beside us in an old and decrepit spray painted sedan without a muffler (loud enough to hear from inside our room) and proceeded to leave the motor running for a couple of hours while he did whatever he was doing at the motel. We saw the same man the next morning with tools and car parts spread all over the ground while he was working on his car in the parking lot. On the plus side, the bed was comfortable. With only two properties in town, and at a $100 per night, take my advice and choose the other one, or stay in a nearby town.More</t>
   </si>
   <si>
+    <t>David B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r429821060-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -396,6 +423,9 @@
     <t>We came down for the weekend to see the National Sprint Races at Devil's Bowl. The Motel was 10 -15 miles away.  Our room was Clean and Quiet.  If you are in to Antiques, you will find several to visit.  We will be staying again when we come down for the races.  VivianMore</t>
   </si>
   <si>
+    <t>jamesmP4361CO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r422302092-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -423,6 +453,9 @@
     <t>My husband had 6 different surgeries at 10:30 they were knocking at the door for us to check out we ask for 30 mins. and we were denied and we are diamond members?!! Every insect u can think of in the room. Cudnt take a shower bc the filthy tub (the ENTIRE room for that matter). Under Cover Boss is what I wud suggest w/ALL these Wydom Reward hotel's!! Especially with these cheaper ones!!More</t>
   </si>
   <si>
+    <t>derrylb2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r412813336-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -450,6 +483,9 @@
     <t>When I went inside the hotel room, I notice a smell the permeated the room. I went to the front desk and explained there was a smell in the room. He stated that there was no smell, so he came down to the room and verify what I was saying. When he came to the room, he brought a key to another room.Well this room was not  any better; there was not a smell but the sink and shower drained slow, as a result, I had standing water in the shower and the sink.I did not stay my full time, I checked out the next morning and relocated to another hotel.More</t>
   </si>
   <si>
+    <t>kennethj717</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r411639376-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -474,6 +510,9 @@
     <t>Recently stayed at this Motel for 2 Nights twice within the last two weeks and have stayed here numerous times.  Room has always been clean. Front office and everyone working there are always nice.More</t>
   </si>
   <si>
+    <t>tracybG207QZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r380876447-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -492,6 +531,9 @@
     <t>Responded June 10, 2016</t>
   </si>
   <si>
+    <t>DLFGeorgetown</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r378667434-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -510,6 +552,9 @@
     <t>Responded June 3, 2016</t>
   </si>
   <si>
+    <t>cynthiavan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r375451141-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -534,6 +579,9 @@
     <t>Was a little Leary at first because this is a Wyndham property &amp; my last experience with their property was a Microtel and it was disgusting! This was a pet friendly hotel and the rooms were clean, they served not much of a Continental breakfast. They used styrofoam bowls &amp; plates we all know you are not suppose to use in the microwave. Couldn't use them for the oatmeal &amp; had a Texas shaped waffle indention on the plate from the Hot Waffle. The walk ways were very dirty so it made it look nasty from the outside Real convenient to a lot of restaurants and not too far from The Tanger Outlets. Easy access to the I20 &amp; Hwy 80. Could barley understand the front desk folks, but they were nice. If I had to revisit I would stay again because they let me bring my dogs... The rooms were clean and the lobby area is nice and cleanC.V - Atlanta, GAMore</t>
   </si>
   <si>
+    <t>Lorelei S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r357556041-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -561,6 +609,9 @@
     <t>Very impressed with this Hotel! The rooms are spacious, clean, with refrigerator and microwave. Close to grocery store, DQ, and several convenience stores. Great place if you travel with pets as they have lots of space to walk your dogs. Small pet fee applies.More</t>
   </si>
   <si>
+    <t>417vikkit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r354202883-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -576,6 +627,9 @@
     <t>Responded March 11, 2016</t>
   </si>
   <si>
+    <t>Todd J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r344526631-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -603,6 +657,9 @@
     <t>We got a flat tire on highway 80 and needed a place to stay over night until the mechanic shop opened the next morning. The staff were extremely friendly upon arrival. We were tired and exhausted but we were in our room within minutes of our arrival which was great. The rooms were big and very clean. Great room for the value.More</t>
   </si>
   <si>
+    <t>jman645</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r340709635-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -621,6 +678,9 @@
     <t>Responded January 19, 2016</t>
   </si>
   <si>
+    <t>I4413HRrobertb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r337364375-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -642,6 +702,9 @@
     <t>Motel shows a little age but clean. Internet worked but needed help from worker to get signed on. Did not go to the breakfast so no comment one way or other on that. Only real problem that I had was shower was luke warm.More</t>
   </si>
   <si>
+    <t>Linda S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r335517541-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -660,6 +723,9 @@
     <t>Responded December 31, 2015</t>
   </si>
   <si>
+    <t>RebeccaMelton68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r303827273-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -678,6 +744,9 @@
     <t>Responded September 16, 2015</t>
   </si>
   <si>
+    <t>100amie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r299117564-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -693,6 +762,9 @@
     <t>Responded August 14, 2015</t>
   </si>
   <si>
+    <t>Celeste J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r292493465-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -720,6 +792,9 @@
     <t>We we're in town for a softball tournament and decided last minute to get a hotel. Although I wouldn't want to stay here longer than a night, it served it's purpose of preventing us from driving an hour and a half home, just to have to come back the next day. Rooms are decent. Shower felt good after 14 hours in the Texas heat.  On the other hand, our friends had to leave the this place because they had no air conditioning in thier room. It was set at 66 but was 85 in the room. More</t>
   </si>
   <si>
+    <t>Brian C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r287346162-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -744,6 +819,9 @@
     <t>We were unimpressed with the room.  It felt dank and I cannot recommend the room.  I do have to say that the service was good in the morning.  We overslept the breakfast, and when the clerk in the front heard us talking, she got breakfast danishes for my children.More</t>
   </si>
   <si>
+    <t>robynh_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r286142974-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -771,6 +849,9 @@
     <t>My family and I stayed in room 209 over the Independence Day weekend. The hotel was clean and quiet. The pool was nice. My only complaint was that there was no hot water. So we took lukewarm showers. The free breakfast was good except the cereal was stale. We were within walking distance from 2 gas stations, a grocery store, and fast food restaurants. I would definately stay again More</t>
   </si>
   <si>
+    <t>162danny</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r284465057-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -796,6 +877,9 @@
   </si>
   <si>
     <t>Will never stay here again.. Had 3 rooms in one visit. The first room soon as I got in the fro t office called and told me they were changing the room cause she thought something was wrong with it. Then the room the did give us the hot water didn't work so they gave me a key to take a shower in another room.  More</t>
+  </si>
+  <si>
+    <t>W1294NXstepheng</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r240458387-Super_8_Forney-Forney_Texas.html</t>
@@ -831,6 +915,9 @@
 I did not report the bug problem to the staff. However, based upon the dead one I found at check in, I would assume they are well aware of the issue. The room was clean when I arrived. However, I shudder to think what was crawling around all night...I've stayed at this property a few times, and while it's nothing to write home about, the bugs crawling around the bathroom will keep me away for good from now on. When I checked in, there were none in the bathroom, though I did find a dead bug carcass in the corner. A little black beetle sort of thing. When I woke the next morning and went to take a shower, the entire bathroom was crawling with them. 20 or so, at least. I had to shake three off of the shower curtain, and wash four others down the drain. I took my shower and left. The room was big, the furniture was decent. The bed was comfortable enough and the internet worked well, for what I used it for: checking email. Very dated, with several places along the base boards where the wall was showing damage. Rot, maybe? Not sure. I didn't get close enough to tell. The staff at check in was very friendly and the area where the breakfast was held looked good from a distance. I did not eat breakfast, so I cannot comment on that portion. I did not report the bug problem to the staff. However, based upon the dead one I found at check in, I would assume they are well aware of the issue. The room was clean when I arrived. However, I shudder to think what was crawling around all night while I was sleeping. A $69 dollar rate for one night will not bring me back, as I prefer to shower without the bugsMore</t>
   </si>
   <si>
+    <t>Charles H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r228170299-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -843,6 +930,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Agent R.d. S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r220552144-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -855,6 +945,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Charles T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r208587276-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -882,6 +975,9 @@
     <t>Property is in need of freshening. Handicap room was cobbled together. No ice machine, older television. Staff very helpful and courteous.More</t>
   </si>
   <si>
+    <t>Mark B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r207038315-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -900,6 +996,9 @@
     <t>The room was good. It was clean and the staff was great! Great price and a nice pool. We have used this hotel many times and always feel safe. More</t>
   </si>
   <si>
+    <t>Anthony S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r186834774-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -921,6 +1020,9 @@
     <t>no internet, water leak, toilet would not flush, no hot water just warm etc. changed rooms , still no wifi even with a cable, cabinet fell apart, had to use my own batteries in t.v remote, just terrible stayMore</t>
   </si>
   <si>
+    <t>Donita W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r186179743-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -945,6 +1047,9 @@
     <t>My family of 7 is very picky about hotels. In the last 10 years we've always stayed at Marriott Hotels. We had vehicle issues and HAD to stop here, the nearest motel. This Super 8 was clean and the man at front desk was GREAT!  He let us stay after checkout while we were getting our truck fixed. Definitely would stay here again!!!More</t>
   </si>
   <si>
+    <t>Carolyn J J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r178959575-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -972,6 +1077,9 @@
     <t>Spent two nights here.   It is conveniently located on the main highway.  The room was clean and the staff was very pleasant and helpful!!!   I will stay here again!!!!   A pleasant experience!!!!   I would definitely recommend it to my friends!!!More</t>
   </si>
   <si>
+    <t>Melissa R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r177601814-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -990,6 +1098,9 @@
     <t>We stay at this hotel the same time every year and this year we were very pleased !! The rooms were upgraded, the pool was sparkling, the breakfast MUCH better, the beds comfortable and the hotel staff actually was very friendly. The only problem we had was the water was warm and not hot at all but otherwise we will stay here again !! More</t>
   </si>
   <si>
+    <t>Jack K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r169031635-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -1017,6 +1128,9 @@
     <t>Wonderful spacious, clean room with great king-size bed and lots of tv channels &amp; small refrigerator. Seems to be like recently remodeled with fresh paint, Great room for a traveling couple or family. Clean and well-maintained bathroom facilities which is what most concerns me while staying out. Very nice breakfast. Friendly staff. Would gladly stay here again.More</t>
   </si>
   <si>
+    <t>L0TAX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r168983872-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -1032,6 +1146,9 @@
     <t>I always include the room I occupy for the business traveler.  I stayed in room 203 at the top of the stairs and the air conditioning was inadequate for a really good night's sleep.  The room did not become comfortable until 1:30 in the morning-yes, after midnight!More</t>
   </si>
   <si>
+    <t>ChandlerRoberts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r167396341-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -1056,6 +1173,9 @@
     <t>This is a comfortable and clean hotel. I have stayed here multiple times over the past four years and plan my route to be here for the night. The owners are friendly, helpful and just nice people. And the price! Can't beat it for twice the money. This is a terrific hotel!More</t>
   </si>
   <si>
+    <t>Summer R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r163565056-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -1074,6 +1194,9 @@
     <t>Responded June 11, 2013</t>
   </si>
   <si>
+    <t>Adv5110</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r159252414-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -1098,6 +1221,9 @@
     <t>My wife and I stayed here after a long night traveling. It was easy to find with no hassle getting our room. Room was large and spacious. Would have liked better parking. It you're not hauling anything, this is no issue. I would recommend this hotel. More</t>
   </si>
   <si>
+    <t>Larry M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r158480166-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -1110,6 +1236,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Steve H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r153277847-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -1137,6 +1266,9 @@
     <t>hole in room wall, slick disabled shower floor, tv remote required constant re-programming. All carbo breakfast. toilet plugged, staff had us unplug. It is cheap, you get what you pay for... other guests had to ask for extra towels, and staff acted like they were stealing.More</t>
   </si>
   <si>
+    <t>TERESA M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r144961565-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -1155,6 +1287,9 @@
     <t>Responded December 15, 2012</t>
   </si>
   <si>
+    <t>Jessica M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r138442568-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -1182,6 +1317,9 @@
     <t>The room was clean and updated. The beds were so cozy that I couldnt even wake up the next morning! Breakfast consisted of pastries, fruits, yogurt, HOT WAFFLES, and much more! The staff was extremely nice and helpful. For half the price of the Best Western across the highway, the Super 8 was perfect!More</t>
   </si>
   <si>
+    <t>bash122</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r37713307-Super_8_Forney-Forney_Texas.html</t>
   </si>
   <si>
@@ -1207,6 +1345,9 @@
   </si>
   <si>
     <t>During our stay here service was exceptional from the front desk to house keeping, they were great. And the rooms were clean! This hotel should be rated a four star...More</t>
+  </si>
+  <si>
+    <t>ttutexasmom</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r3767126-Super_8_Forney-Forney_Texas.html</t>
@@ -1729,43 +1870,47 @@
       <c r="A2" t="n">
         <v>38057</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>178676</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -1787,56 +1932,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>38057</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>178677</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1852,56 +2001,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>38057</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>178678</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -1917,56 +2070,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>38057</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>48626</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1978,54 +2135,58 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>38057</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>178679</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2047,56 +2208,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>38057</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>178680</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2108,56 +2273,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>38057</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>178681</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2169,56 +2338,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>38057</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>2349</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2236,56 +2409,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="X9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>38057</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>304</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="O10" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -2307,56 +2484,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>38057</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>178682</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2368,56 +2549,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>38057</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>178683</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -2439,56 +2624,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>38057</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>178684</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2510,54 +2699,58 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="X13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>38057</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>178685</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O14" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -2579,54 +2772,58 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="X14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>38057</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>178686</v>
+      </c>
+      <c r="C15" t="s">
+        <v>171</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -2648,56 +2845,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="X15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="Y15" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>38057</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>178687</v>
+      </c>
+      <c r="C16" t="s">
+        <v>178</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="J16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="K16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2709,56 +2910,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="X16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Y16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>38057</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>178688</v>
+      </c>
+      <c r="C17" t="s">
+        <v>187</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="J17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="K17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="O17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2774,54 +2979,58 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="X17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="Y17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>38057</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>178689</v>
+      </c>
+      <c r="C18" t="s">
+        <v>197</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="J18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K18" t="s"/>
       <c r="L18" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="O18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -2843,56 +3052,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="X18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="Y18" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>38057</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>178690</v>
+      </c>
+      <c r="C19" t="s">
+        <v>203</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="J19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="K19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2908,54 +3121,58 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="X19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="Y19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>38057</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>178691</v>
+      </c>
+      <c r="C20" t="s">
+        <v>213</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="J20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="O20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -2977,56 +3194,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="X20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="Y20" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>38057</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>178692</v>
+      </c>
+      <c r="C21" t="s">
+        <v>220</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="J21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="K21" t="s">
         <v>10</v>
       </c>
       <c r="L21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3042,54 +3263,58 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="X21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="Y21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>38057</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>6383</v>
+      </c>
+      <c r="C22" t="s">
+        <v>228</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="J22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3111,54 +3336,58 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="X22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="Y22" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>38057</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>178693</v>
+      </c>
+      <c r="C23" t="s">
+        <v>235</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="J23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3180,54 +3409,58 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="X23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="Y23" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>38057</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>178694</v>
+      </c>
+      <c r="C24" t="s">
+        <v>242</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="J24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
@@ -3249,56 +3482,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="X24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="Y24" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>38057</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>44874</v>
+      </c>
+      <c r="C25" t="s">
+        <v>248</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="J25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="K25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3310,56 +3547,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="X25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="Y25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>38057</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>7535</v>
+      </c>
+      <c r="C26" t="s">
+        <v>258</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="J26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="K26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="L26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3377,56 +3618,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="X26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="Y26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>38057</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>178695</v>
+      </c>
+      <c r="C27" t="s">
+        <v>267</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="J27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="K27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="L27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="O27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3438,56 +3683,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="X27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="Y27" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>38057</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>178696</v>
+      </c>
+      <c r="C28" t="s">
+        <v>277</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="J28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="K28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="L28" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="O28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3499,56 +3748,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="X28" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="Y28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>38057</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>178697</v>
+      </c>
+      <c r="C29" t="s">
+        <v>287</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="J29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="K29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="L29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="O29" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P29" t="n">
         <v>2</v>
@@ -3570,54 +3823,58 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="X29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="Y29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>38057</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>10441</v>
+      </c>
+      <c r="C30" t="s">
+        <v>297</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="J30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="O30" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3639,54 +3896,58 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="X30" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="Y30" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>38057</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>178698</v>
+      </c>
+      <c r="C31" t="s">
+        <v>302</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="J31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="O31" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -3708,56 +3969,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="X31" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="Y31" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>38057</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>24974</v>
+      </c>
+      <c r="C32" t="s">
+        <v>307</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="J32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="K32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="L32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="O32" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -3779,56 +4044,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="X32" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="Y32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>38057</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>2433</v>
+      </c>
+      <c r="C33" t="s">
+        <v>317</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="J33" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="K33" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="L33" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="O33" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3850,56 +4119,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="X33" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="Y33" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>38057</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>7595</v>
+      </c>
+      <c r="C34" t="s">
+        <v>324</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="J34" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="K34" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="L34" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="O34" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -3921,47 +4194,51 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="X34" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="Y34" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>38057</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>178699</v>
+      </c>
+      <c r="C35" t="s">
+        <v>332</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="J35" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="K35" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="L35" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
@@ -3988,56 +4265,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="X35" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="Y35" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>38057</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>178700</v>
+      </c>
+      <c r="C36" t="s">
+        <v>341</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="J36" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="K36" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="L36" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="O36" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4059,56 +4340,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="X36" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="Y36" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>38057</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>14877</v>
+      </c>
+      <c r="C37" t="s">
+        <v>351</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="J37" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="K37" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="L37" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4130,56 +4415,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="X37" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="Y37" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>38057</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>178701</v>
+      </c>
+      <c r="C38" t="s">
+        <v>358</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="J38" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="K38" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="L38" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="O38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4201,56 +4490,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="X38" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="Y38" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>38057</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>178702</v>
+      </c>
+      <c r="C39" t="s">
+        <v>368</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="J39" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="K39" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="L39" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="O39" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -4272,47 +4565,51 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="X39" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="Y39" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>38057</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>178703</v>
+      </c>
+      <c r="C40" t="s">
+        <v>374</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="J40" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="K40" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="L40" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
@@ -4339,54 +4636,58 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="X40" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="Y40" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>38057</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>73502</v>
+      </c>
+      <c r="C41" t="s">
+        <v>383</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="J41" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="O41" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -4408,47 +4709,51 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="X41" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="Y41" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>38057</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>178704</v>
+      </c>
+      <c r="C42" t="s">
+        <v>390</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="J42" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="K42" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="L42" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
@@ -4475,54 +4780,58 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="X42" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="Y42" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>38057</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>561</v>
+      </c>
+      <c r="C43" t="s">
+        <v>399</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="J43" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="O43" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4544,56 +4853,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="X43" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="Y43" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>38057</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C44" t="s">
+        <v>404</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="J44" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="K44" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="L44" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="O44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4615,54 +4928,58 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="X44" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="Y44" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>38057</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>178705</v>
+      </c>
+      <c r="C45" t="s">
+        <v>414</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="J45" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="O45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4684,56 +5001,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="X45" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="Y45" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>38057</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>1401</v>
+      </c>
+      <c r="C46" t="s">
+        <v>421</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="J46" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="K46" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="L46" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="O46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4755,56 +5076,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="X46" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="Y46" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>38057</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>178706</v>
+      </c>
+      <c r="C47" t="s">
+        <v>431</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="J47" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
       <c r="K47" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="L47" t="s">
-        <v>390</v>
+        <v>436</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="O47" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4826,47 +5151,51 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="X47" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="Y47" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>38057</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>178707</v>
+      </c>
+      <c r="C48" t="s">
+        <v>441</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="J48" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="K48" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="L48" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
@@ -4891,13 +5220,13 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="X48" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="Y48" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_733.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_733.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="583">
   <si>
     <t>STR#</t>
   </si>
@@ -147,13 +147,10 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>brianoJ654IS</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r550205535-Super_8_Forney-Forney_Texas.html</t>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r571345514-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>55850</t>
@@ -162,6 +159,45 @@
     <t>483324</t>
   </si>
   <si>
+    <t>571345514</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>786Motel, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded July 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2018</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r567928315-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>567928315</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r550205535-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
     <t>550205535</t>
   </si>
   <si>
@@ -180,7 +216,7 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded January 14, 2018</t>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded January 14, 2018</t>
   </si>
   <si>
     <t>Responded January 14, 2018</t>
@@ -189,10 +225,7 @@
     <t>It was very difficult to find this location.  You need a sign on US Highway 80.  we drove right by it without seeing it.  This is an management/owner problem not an employee one. Otherwise it was an ok facility.More</t>
   </si>
   <si>
-    <t>susanmaxreed</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r516079989-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r516079989-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>516079989</t>
@@ -210,7 +243,7 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded August 24, 2017</t>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded August 24, 2017</t>
   </si>
   <si>
     <t>Responded August 24, 2017</t>
@@ -219,10 +252,7 @@
     <t>They only charge 20 for pets and the rooms were pet rooms but very clean and big. Only downside was our room was by the pool so we had noise until the pool closed, however no biggy, we still slept well. I would come againMore</t>
   </si>
   <si>
-    <t>jospehranch12</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r515706224-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r515706224-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>515706224</t>
@@ -243,10 +273,55 @@
     <t>Very nice rooms, friendly staff, and decent breakfast. I wish they had more protein items in the breakfast but overall it was good for a super 8. Good value for a quick stop in the middle of the night.More</t>
   </si>
   <si>
-    <t>Ruth B</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r495015282-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r498841773-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>498841773</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Good Hotel Stay </t>
+  </si>
+  <si>
+    <t>Very good hotel stay.  In a good location of Forney with plenty of restaurants to go visit nearby.  The downtown area is very close as well.  The jacuzzi room is very nice and relaxing.  Right by the pool as well.  It was very quiet and customer service was great.  Flat screen tv and bathroom area was nice.  It was very clean and orderly.  The only thing they could update would be the mattresses.  It was not too much on the soft side.  Other than that, the price was good and the stay was very enjoyable.  MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Very good hotel stay.  In a good location of Forney with plenty of restaurants to go visit nearby.  The downtown area is very close as well.  The jacuzzi room is very nice and relaxing.  Right by the pool as well.  It was very quiet and customer service was great.  Flat screen tv and bathroom area was nice.  It was very clean and orderly.  The only thing they could update would be the mattresses.  It was not too much on the soft side.  Other than that, the price was good and the stay was very enjoyable.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r497475030-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>497475030</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Clean and friendly staff</t>
+  </si>
+  <si>
+    <t>We had 2 dogs on the trip and the staff was easy to deal with and the room was in great condition.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>We had 2 dogs on the trip and the staff was easy to deal with and the room was in great condition.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r495015282-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>495015282</t>
@@ -261,25 +336,10 @@
     <t>The room smelled of moth balls. If that was all I would be okay. But toilet was dirty with feces and there were crickets on my pillow. Also there was some weird decoration above the door!! Never again!MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Management response:Responded July 26, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 26, 2017</t>
-  </si>
-  <si>
     <t>The room smelled of moth balls. If that was all I would be okay. But toilet was dirty with feces and there were crickets on my pillow. Also there was some weird decoration above the door!! Never again!More</t>
   </si>
   <si>
-    <t>407raymondl</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r471219451-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r471219451-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>471219451</t>
@@ -288,25 +348,16 @@
     <t>03/29/2017</t>
   </si>
   <si>
-    <t>MoreShow less</t>
-  </si>
-  <si>
     <t>March 2017</t>
   </si>
   <si>
-    <t>Super8Forney, Guest Relations Manager at Super 8 Forney, responded to this reviewResponded May 24, 2017</t>
+    <t>Super8Forney, Guest Relations Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded May 24, 2017</t>
   </si>
   <si>
     <t>Responded May 24, 2017</t>
   </si>
   <si>
-    <t>More</t>
-  </si>
-  <si>
-    <t>SherryWSmith</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r465640308-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r465640308-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>465640308</t>
@@ -324,7 +375,7 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t>Super8Forney, Guest Relations Manager at Super 8 Forney, responded to this reviewResponded March 18, 2017</t>
+    <t>Super8Forney, Guest Relations Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded March 18, 2017</t>
   </si>
   <si>
     <t>Responded March 18, 2017</t>
@@ -333,10 +384,52 @@
     <t>We are moving from South Tx to North Tx so we have stayed at many hotels and motels in the process. Super 8 Forney was a great value for what we spent out of them all even though our room phone wasn't working everything else did the breakfast is typical Continental one. Room was clean everyone friendly and helpful. I would recommend staying there.More</t>
   </si>
   <si>
-    <t>Trish Pat A</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r438758638-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r454097633-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>454097633</t>
+  </si>
+  <si>
+    <t>01/22/2017</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded January 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r439378578-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>439378578</t>
+  </si>
+  <si>
+    <t>11/22/2016</t>
+  </si>
+  <si>
+    <t>Bad experience</t>
+  </si>
+  <si>
+    <t>The room was supposed to be non smoking.  Had to take a smoker room . The head bord was falling off wall. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded December 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2016</t>
+  </si>
+  <si>
+    <t>The room was supposed to be non smoking.  Had to take a smoker room . The head bord was falling off wall. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r438758638-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>438758638</t>
@@ -351,22 +444,10 @@
     <t>Usually I stay at the Best Western but they were full last night. One site gave the Super 8 a 4 so I gave it a chance. The water only got lukewarm for both pm and am shower. I smashed a baby water bug (where there are babies there are mommies). The breakfast was a joke. The restroom smelled of bleach and sour rags. I will never stay here again.MoreShow less</t>
   </si>
   <si>
-    <t>November 2016</t>
-  </si>
-  <si>
-    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded December 14, 2016</t>
-  </si>
-  <si>
-    <t>Responded December 14, 2016</t>
-  </si>
-  <si>
     <t>Usually I stay at the Best Western but they were full last night. One site gave the Super 8 a 4 so I gave it a chance. The water only got lukewarm for both pm and am shower. I smashed a baby water bug (where there are babies there are mommies). The breakfast was a joke. The restroom smelled of bleach and sour rags. I will never stay here again.More</t>
   </si>
   <si>
-    <t>Kim H</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r437092044-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r437092044-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>437092044</t>
@@ -381,10 +462,7 @@
     <t>With only two hotels in Forney, I rolled the dice and chose the less expensive property. I should have realized something was amiss when I booked online and didn't receive a confirmation email. That first mistake cost me a night since I inadvertently booked the wrong night when the website defaulted to a different night and I only learned of the mistake when I checked in on the correct night. All the rooms, both floors, are accessed from the outside. The property is "pet friendly" and unfortunately our room smelled like dog urine. The television didn't work and a replacement was brought in from another room. My wife was a little frightened for her safety due to the presence of men sitting in a pickup near our room drinking beer and another man who pulled up beside us in an old and decrepit spray painted sedan without a muffler (loud enough to hear from inside our room) and proceeded to leave the motor running for a couple of hours while he did whatever he was doing at the motel. We saw the same man the next morning with tools and car parts spread all over the ground while he was working on his car in the parking lot. On the plus side, the bed was comfortable. With only two properties in town, and at a $100 per night, take my advice and choose the other one, or stay in a...With only two hotels in Forney, I rolled the dice and chose the less expensive property. I should have realized something was amiss when I booked online and didn't receive a confirmation email. That first mistake cost me a night since I inadvertently booked the wrong night when the website defaulted to a different night and I only learned of the mistake when I checked in on the correct night. All the rooms, both floors, are accessed from the outside. The property is "pet friendly" and unfortunately our room smelled like dog urine. The television didn't work and a replacement was brought in from another room. My wife was a little frightened for her safety due to the presence of men sitting in a pickup near our room drinking beer and another man who pulled up beside us in an old and decrepit spray painted sedan without a muffler (loud enough to hear from inside our room) and proceeded to leave the motor running for a couple of hours while he did whatever he was doing at the motel. We saw the same man the next morning with tools and car parts spread all over the ground while he was working on his car in the parking lot. On the plus side, the bed was comfortable. With only two properties in town, and at a $100 per night, take my advice and choose the other one, or stay in a nearby town.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded November 15, 2016</t>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded November 15, 2016</t>
   </si>
   <si>
     <t>Responded November 15, 2016</t>
@@ -393,10 +471,7 @@
     <t>With only two hotels in Forney, I rolled the dice and chose the less expensive property. I should have realized something was amiss when I booked online and didn't receive a confirmation email. That first mistake cost me a night since I inadvertently booked the wrong night when the website defaulted to a different night and I only learned of the mistake when I checked in on the correct night. All the rooms, both floors, are accessed from the outside. The property is "pet friendly" and unfortunately our room smelled like dog urine. The television didn't work and a replacement was brought in from another room. My wife was a little frightened for her safety due to the presence of men sitting in a pickup near our room drinking beer and another man who pulled up beside us in an old and decrepit spray painted sedan without a muffler (loud enough to hear from inside our room) and proceeded to leave the motor running for a couple of hours while he did whatever he was doing at the motel. We saw the same man the next morning with tools and car parts spread all over the ground while he was working on his car in the parking lot. On the plus side, the bed was comfortable. With only two properties in town, and at a $100 per night, take my advice and choose the other one, or stay in a...With only two hotels in Forney, I rolled the dice and chose the less expensive property. I should have realized something was amiss when I booked online and didn't receive a confirmation email. That first mistake cost me a night since I inadvertently booked the wrong night when the website defaulted to a different night and I only learned of the mistake when I checked in on the correct night. All the rooms, both floors, are accessed from the outside. The property is "pet friendly" and unfortunately our room smelled like dog urine. The television didn't work and a replacement was brought in from another room. My wife was a little frightened for her safety due to the presence of men sitting in a pickup near our room drinking beer and another man who pulled up beside us in an old and decrepit spray painted sedan without a muffler (loud enough to hear from inside our room) and proceeded to leave the motor running for a couple of hours while he did whatever he was doing at the motel. We saw the same man the next morning with tools and car parts spread all over the ground while he was working on his car in the parking lot. On the plus side, the bed was comfortable. With only two properties in town, and at a $100 per night, take my advice and choose the other one, or stay in a nearby town.More</t>
   </si>
   <si>
-    <t>David B</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r429821060-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r429821060-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>429821060</t>
@@ -414,7 +489,7 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t>Super8Forney, Owner at Super 8 Forney, responded to this reviewResponded October 21, 2016</t>
+    <t>Super8Forney, Owner at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded October 21, 2016</t>
   </si>
   <si>
     <t>Responded October 21, 2016</t>
@@ -423,10 +498,58 @@
     <t>We came down for the weekend to see the National Sprint Races at Devil's Bowl. The Motel was 10 -15 miles away.  Our room was Clean and Quiet.  If you are in to Antiques, you will find several to visit.  We will be staying again when we come down for the races.  VivianMore</t>
   </si>
   <si>
-    <t>jamesmP4361CO</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r422302092-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r424717556-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>424717556</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>Value Motel</t>
+  </si>
+  <si>
+    <t>First and most importantly, this location is a MOTEL, not a HOTEL (a motel is noted by accessing your room from outside, like an apartment home - hotels have room entries from inside the structure).  The room had two beds as requested, a television with working remote (and multiple channels), a college room refrigerator, and alarm clock.  It was clean, but there was a smell.  The smell was from the city...and the humidity was exacerbating the issue.  The smell got better when we kept the doors closed and the air conditioning on.  They did have a continental breakfast and fresh fruit.  I was pleased with the limited choices of breakfast.  Towels were clean and all else was satisfactory.  I cannot rate this motel as VERY GOOD or EXCELLENT because it was "not that kind of lodging."  However, the price was adequate to the accommodations.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded October 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2016</t>
+  </si>
+  <si>
+    <t>First and most importantly, this location is a MOTEL, not a HOTEL (a motel is noted by accessing your room from outside, like an apartment home - hotels have room entries from inside the structure).  The room had two beds as requested, a television with working remote (and multiple channels), a college room refrigerator, and alarm clock.  It was clean, but there was a smell.  The smell was from the city...and the humidity was exacerbating the issue.  The smell got better when we kept the doors closed and the air conditioning on.  They did have a continental breakfast and fresh fruit.  I was pleased with the limited choices of breakfast.  Towels were clean and all else was satisfactory.  I cannot rate this motel as VERY GOOD or EXCELLENT because it was "not that kind of lodging."  However, the price was adequate to the accommodations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r423580693-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>423580693</t>
+  </si>
+  <si>
+    <t>09/29/2016</t>
+  </si>
+  <si>
+    <t>Sad trip not happy overall</t>
+  </si>
+  <si>
+    <t>We reserved king bed smoking. When we checked in the room smelled like cat urine bad. Jacuzzi tub did not work. Bathroom just had a sink on the wall no counter top for our bath items. We were moved next door to a room with two full beds not even queen. Room smelled better and had a counter top in the bathroom. Both beds were old and worn out so we both rolled to the middle. Woke up in pain and feeling unrested. Family stayed three doors down from us. Their toilet didn't work and floor flooded from the tank on the toilet continually running. TV had no remote so we were told to take the remote from the room we moved out of. Phone didn't work either. Instead of moving our 92 year old grandmother to another room they had mattenence in and out of the trying to fix the toilet and dry the floor. It is an old motel with a coat of paint which is fine if they update everything else such as mattresses,toilets and phones.  We only stayed because this was the closest to our family in forney and was a part of Wyndham rewards. We were in town for my uncles funeral sad trip to begin with and worse because of our motel stay. We will not stay there againMoreShow less</t>
+  </si>
+  <si>
+    <t>Super8Forney, Guest Relations Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded October 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2016</t>
+  </si>
+  <si>
+    <t>We reserved king bed smoking. When we checked in the room smelled like cat urine bad. Jacuzzi tub did not work. Bathroom just had a sink on the wall no counter top for our bath items. We were moved next door to a room with two full beds not even queen. Room smelled better and had a counter top in the bathroom. Both beds were old and worn out so we both rolled to the middle. Woke up in pain and feeling unrested. Family stayed three doors down from us. Their toilet didn't work and floor flooded from the tank on the toilet continually running. TV had no remote so we were told to take the remote from the room we moved out of. Phone didn't work either. Instead of moving our 92 year old grandmother to another room they had mattenence in and out of the trying to fix the toilet and dry the floor. It is an old motel with a coat of paint which is fine if they update everything else such as mattresses,toilets and phones.  We only stayed because this was the closest to our family in forney and was a part of Wyndham rewards. We were in town for my uncles funeral sad trip to begin with and worse because of our motel stay. We will not stay there againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r422302092-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>422302092</t>
@@ -441,10 +564,7 @@
     <t>My husband had 6 different surgeries at 10:30 they were knocking at the door for us to check out we ask for 30 mins. and we were denied and we are diamond members?!! Every insect u can think of in the room. Cudnt take a shower bc the filthy tub (the ENTIRE room for that matter). Under Cover Boss is what I wud suggest w/ALL these Wydom Reward hotel's!! Especially with these cheaper ones!!MoreShow less</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
-    <t>Super8Forney, Guest Relations Manager at Super 8 Forney, responded to this reviewResponded September 29, 2016</t>
+    <t>Super8Forney, Guest Relations Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded September 29, 2016</t>
   </si>
   <si>
     <t>Responded September 29, 2016</t>
@@ -453,10 +573,7 @@
     <t>My husband had 6 different surgeries at 10:30 they were knocking at the door for us to check out we ask for 30 mins. and we were denied and we are diamond members?!! Every insect u can think of in the room. Cudnt take a shower bc the filthy tub (the ENTIRE room for that matter). Under Cover Boss is what I wud suggest w/ALL these Wydom Reward hotel's!! Especially with these cheaper ones!!More</t>
   </si>
   <si>
-    <t>derrylb2016</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r412813336-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r412813336-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>412813336</t>
@@ -474,7 +591,7 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t>Super8Forney, Guest Relations Manager at Super 8 Forney, responded to this reviewResponded September 23, 2016</t>
+    <t>Super8Forney, Guest Relations Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded September 23, 2016</t>
   </si>
   <si>
     <t>Responded September 23, 2016</t>
@@ -483,10 +600,7 @@
     <t>When I went inside the hotel room, I notice a smell the permeated the room. I went to the front desk and explained there was a smell in the room. He stated that there was no smell, so he came down to the room and verify what I was saying. When he came to the room, he brought a key to another room.Well this room was not  any better; there was not a smell but the sink and shower drained slow, as a result, I had standing water in the shower and the sink.I did not stay my full time, I checked out the next morning and relocated to another hotel.More</t>
   </si>
   <si>
-    <t>kennethj717</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r411639376-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r411639376-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>411639376</t>
@@ -501,7 +615,7 @@
     <t>Recently stayed at this Motel for 2 Nights twice within the last two weeks and have stayed here numerous times.  Room has always been clean. Front office and everyone working there are always nice.MoreShow less</t>
   </si>
   <si>
-    <t>Super8Forney, Owner at Super 8 Forney, responded to this reviewResponded September 21, 2016</t>
+    <t>Super8Forney, Owner at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded September 21, 2016</t>
   </si>
   <si>
     <t>Responded September 21, 2016</t>
@@ -510,10 +624,61 @@
     <t>Recently stayed at this Motel for 2 Nights twice within the last two weeks and have stayed here numerous times.  Room has always been clean. Front office and everyone working there are always nice.More</t>
   </si>
   <si>
-    <t>tracybG207QZ</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r380876447-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r394120485-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>394120485</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super 8 Forney, Texas </t>
+  </si>
+  <si>
+    <t>Super 8 Forney, Texas is 10 x better than Baymont in Terrell, Texas. Baymont was more expensive, no signal on the phone. Could not receive or make phone calls. I was able to text but no calls.Super 8 Forney, Texas is really nice, cleaning crew are wonderful!!!!As far as the business center you could not use the printer. Spoke with the owner and he acted as if it was no big deal and wasn't going to be corrected. It was some customers fault and it hasn't worked for a while. Questioned again and he acted as if it wasn't going to be corrected, MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Super 8 Forney, Texas is 10 x better than Baymont in Terrell, Texas. Baymont was more expensive, no signal on the phone. Could not receive or make phone calls. I was able to text but no calls.Super 8 Forney, Texas is really nice, cleaning crew are wonderful!!!!As far as the business center you could not use the printer. Spoke with the owner and he acted as if it was no big deal and wasn't going to be corrected. It was some customers fault and it hasn't worked for a while. Questioned again and he acted as if it wasn't going to be corrected, More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r387085292-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>387085292</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>No military  discount wash given...</t>
+  </si>
+  <si>
+    <t>We paid almost 80 for a room when all others give us 15 % military  this facility did not. There was no microwave or refrigerator  in the room. The condiments  were for 1 person and only nasty decafe coffee in our room.  The room did not smell clean but we were glad it had a ceiling fanMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Super8Forney, Guest Relations Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded June 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2016</t>
+  </si>
+  <si>
+    <t>We paid almost 80 for a room when all others give us 15 % military  this facility did not. There was no microwave or refrigerator  in the room. The condiments  were for 1 person and only nasty decafe coffee in our room.  The room did not smell clean but we were glad it had a ceiling fanMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r380876447-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>380876447</t>
@@ -522,19 +687,13 @@
     <t>06/08/2016</t>
   </si>
   <si>
-    <t>June 2016</t>
-  </si>
-  <si>
-    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded June 10, 2016</t>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded June 10, 2016</t>
   </si>
   <si>
     <t>Responded June 10, 2016</t>
   </si>
   <si>
-    <t>DLFGeorgetown</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r378667434-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r378667434-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>378667434</t>
@@ -546,16 +705,13 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded June 3, 2016</t>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded June 3, 2016</t>
   </si>
   <si>
     <t>Responded June 3, 2016</t>
   </si>
   <si>
-    <t>cynthiavan</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r375451141-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r375451141-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>375451141</t>
@@ -570,7 +726,7 @@
     <t>Was a little Leary at first because this is a Wyndham property &amp; my last experience with their property was a Microtel and it was disgusting! This was a pet friendly hotel and the rooms were clean, they served not much of a Continental breakfast. They used styrofoam bowls &amp; plates we all know you are not suppose to use in the microwave. Couldn't use them for the oatmeal &amp; had a Texas shaped waffle indention on the plate from the Hot Waffle. The walk ways were very dirty so it made it look nasty from the outside Real convenient to a lot of restaurants and not too far from The Tanger Outlets. Easy access to the I20 &amp; Hwy 80. Could barley understand the front desk folks, but they were nice. If I had to revisit I would stay again because they let me bring my dogs... The rooms were clean and the lobby area is nice and cleanC.V - Atlanta, GAMoreShow less</t>
   </si>
   <si>
-    <t>Super8Forney, Guest Relations Manager at Super 8 Forney, responded to this reviewResponded May 24, 2016</t>
+    <t>Super8Forney, Guest Relations Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded May 24, 2016</t>
   </si>
   <si>
     <t>Responded May 24, 2016</t>
@@ -579,10 +735,40 @@
     <t>Was a little Leary at first because this is a Wyndham property &amp; my last experience with their property was a Microtel and it was disgusting! This was a pet friendly hotel and the rooms were clean, they served not much of a Continental breakfast. They used styrofoam bowls &amp; plates we all know you are not suppose to use in the microwave. Couldn't use them for the oatmeal &amp; had a Texas shaped waffle indention on the plate from the Hot Waffle. The walk ways were very dirty so it made it look nasty from the outside Real convenient to a lot of restaurants and not too far from The Tanger Outlets. Easy access to the I20 &amp; Hwy 80. Could barley understand the front desk folks, but they were nice. If I had to revisit I would stay again because they let me bring my dogs... The rooms were clean and the lobby area is nice and cleanC.V - Atlanta, GAMore</t>
   </si>
   <si>
-    <t>Lorelei S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r357556041-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r366199663-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>366199663</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded April 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r361856940-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>361856940</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded April 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r357556041-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>357556041</t>
@@ -600,7 +786,7 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded March 25, 2016</t>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded March 25, 2016</t>
   </si>
   <si>
     <t>Responded March 25, 2016</t>
@@ -609,10 +795,7 @@
     <t>Very impressed with this Hotel! The rooms are spacious, clean, with refrigerator and microwave. Close to grocery store, DQ, and several convenience stores. Great place if you travel with pets as they have lots of space to walk your dogs. Small pet fee applies.More</t>
   </si>
   <si>
-    <t>417vikkit</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r354202883-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r354202883-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>354202883</t>
@@ -621,16 +804,13 @@
     <t>03/09/2016</t>
   </si>
   <si>
-    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded March 11, 2016</t>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded March 11, 2016</t>
   </si>
   <si>
     <t>Responded March 11, 2016</t>
   </si>
   <si>
-    <t>Todd J</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r344526631-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r344526631-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>344526631</t>
@@ -648,7 +828,7 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded February 4, 2016</t>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded February 4, 2016</t>
   </si>
   <si>
     <t>Responded February 4, 2016</t>
@@ -657,10 +837,52 @@
     <t>We got a flat tire on highway 80 and needed a place to stay over night until the mechanic shop opened the next morning. The staff were extremely friendly upon arrival. We were tired and exhausted but we were in our room within minutes of our arrival which was great. The rooms were big and very clean. Great room for the value.More</t>
   </si>
   <si>
-    <t>jman645</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r340709635-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r344389534-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>344389534</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>Cold shower</t>
+  </si>
+  <si>
+    <t>The rooms or halfway decent but the showers need a lot of help cold water and very little pressure MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Super8Forney, General Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded February 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2016</t>
+  </si>
+  <si>
+    <t>The rooms or halfway decent but the showers need a lot of help cold water and very little pressure More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r344243103-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>344243103</t>
+  </si>
+  <si>
+    <t>Clean and comfortable. Limited large vehicle parking available.</t>
+  </si>
+  <si>
+    <t>This is my 2nd time at this location.  The hotel is situated for easy on/off the freeway.  The building and grounds are well maintained.  The room was clean and the bed was comfortable.  I parked my bus behind the hotel with no problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded February 2, 2016</t>
+  </si>
+  <si>
+    <t>This is my 2nd time at this location.  The hotel is situated for easy on/off the freeway.  The building and grounds are well maintained.  The room was clean and the bed was comfortable.  I parked my bus behind the hotel with no problems.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r340709635-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>340709635</t>
@@ -669,19 +891,13 @@
     <t>01/17/2016</t>
   </si>
   <si>
-    <t>January 2016</t>
-  </si>
-  <si>
-    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded January 19, 2016</t>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded January 19, 2016</t>
   </si>
   <si>
     <t>Responded January 19, 2016</t>
   </si>
   <si>
-    <t>I4413HRrobertb</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r337364375-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r337364375-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>337364375</t>
@@ -693,7 +909,7 @@
     <t>Motel shows a little age but clean. Internet worked but needed help from worker to get signed on. Did not go to the breakfast so no comment one way or other on that. Only real problem that I had was shower was luke warm.MoreShow less</t>
   </si>
   <si>
-    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded January 12, 2016</t>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded January 12, 2016</t>
   </si>
   <si>
     <t>Responded January 12, 2016</t>
@@ -702,10 +918,7 @@
     <t>Motel shows a little age but clean. Internet worked but needed help from worker to get signed on. Did not go to the breakfast so no comment one way or other on that. Only real problem that I had was shower was luke warm.More</t>
   </si>
   <si>
-    <t>Linda S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r335517541-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r335517541-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>335517541</t>
@@ -717,16 +930,64 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t>Super8Forney, Guest Relations Manager at Super 8 Forney, responded to this reviewResponded December 31, 2015</t>
+    <t>Super8Forney, Guest Relations Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded December 31, 2015</t>
   </si>
   <si>
     <t>Responded December 31, 2015</t>
   </si>
   <si>
-    <t>RebeccaMelton68</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r303827273-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r317048008-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>317048008</t>
+  </si>
+  <si>
+    <t>10/08/2015</t>
+  </si>
+  <si>
+    <t>Awesome value</t>
+  </si>
+  <si>
+    <t>Better than some of the premier hotels we've stayed at. Clean, large rooms and the air conditioner will freeze ice it works so well. Less than $60 bucks. Definitely would be back. Comfortable beds and extra large tv's. Microwave and fridge and nice decorMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded October 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2015</t>
+  </si>
+  <si>
+    <t>Better than some of the premier hotels we've stayed at. Clean, large rooms and the air conditioner will freeze ice it works so well. Less than $60 bucks. Definitely would be back. Comfortable beds and extra large tv's. Microwave and fridge and nice decorMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r315654919-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>315654919</t>
+  </si>
+  <si>
+    <t>10/02/2015</t>
+  </si>
+  <si>
+    <t>Would expect a little better for the price paid</t>
+  </si>
+  <si>
+    <t>This location cost $10 less than another place I stayed during a previous visit, but the quality was much less than that. It looked like someone had tried to kick the door in.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>This location cost $10 less than another place I stayed during a previous visit, but the quality was much less than that. It looked like someone had tried to kick the door in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r303827273-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>303827273</t>
@@ -738,16 +999,13 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t>Super8Forney, Owner at Super 8 Forney, responded to this reviewResponded September 16, 2015</t>
+    <t>Super8Forney, Owner at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded September 16, 2015</t>
   </si>
   <si>
     <t>Responded September 16, 2015</t>
   </si>
   <si>
-    <t>100amie</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r299117564-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r299117564-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>299117564</t>
@@ -756,16 +1014,13 @@
     <t>08/14/2015</t>
   </si>
   <si>
-    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded August 14, 2015</t>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded August 14, 2015</t>
   </si>
   <si>
     <t>Responded August 14, 2015</t>
   </si>
   <si>
-    <t>Celeste J</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r292493465-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r292493465-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>292493465</t>
@@ -783,7 +1038,7 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded August 2, 2015</t>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded August 2, 2015</t>
   </si>
   <si>
     <t>Responded August 2, 2015</t>
@@ -792,10 +1047,49 @@
     <t>We we're in town for a softball tournament and decided last minute to get a hotel. Although I wouldn't want to stay here longer than a night, it served it's purpose of preventing us from driving an hour and a half home, just to have to come back the next day. Rooms are decent. Shower felt good after 14 hours in the Texas heat.  On the other hand, our friends had to leave the this place because they had no air conditioning in thier room. It was set at 66 but was 85 in the room. More</t>
   </si>
   <si>
-    <t>Brian C</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r287346162-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r291250835-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>291250835</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Budget rooms that work</t>
+  </si>
+  <si>
+    <t>Spent 3 weeks here. Had a great room. Staff is helpful and attentive. Pool was a major asset. Clean and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded July 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2015</t>
+  </si>
+  <si>
+    <t>Spent 3 weeks here. Had a great room. Staff is helpful and attentive. Pool was a major asset. Clean and comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r288364307-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>288364307</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded July 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r287346162-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>287346162</t>
@@ -810,7 +1104,7 @@
     <t>We were unimpressed with the room.  It felt dank and I cannot recommend the room.  I do have to say that the service was good in the morning.  We overslept the breakfast, and when the clerk in the front heard us talking, she got breakfast danishes for my children.MoreShow less</t>
   </si>
   <si>
-    <t>Super8Forney, Owner at Super 8 Forney, responded to this reviewResponded July 11, 2015</t>
+    <t>Super8Forney, Owner at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded July 11, 2015</t>
   </si>
   <si>
     <t>Responded July 11, 2015</t>
@@ -819,10 +1113,7 @@
     <t>We were unimpressed with the room.  It felt dank and I cannot recommend the room.  I do have to say that the service was good in the morning.  We overslept the breakfast, and when the clerk in the front heard us talking, she got breakfast danishes for my children.More</t>
   </si>
   <si>
-    <t>robynh_12</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r286142974-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r286142974-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>286142974</t>
@@ -837,10 +1128,7 @@
     <t>My family and I stayed in room 209 over the Independence Day weekend. The hotel was clean and quiet. The pool was nice. My only complaint was that there was no hot water. So we took lukewarm showers. The free breakfast was good except the cereal was stale. We were within walking distance from 2 gas stations, a grocery store, and fast food restaurants. I would definately stay again MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded July 8, 2015</t>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded July 8, 2015</t>
   </si>
   <si>
     <t>Responded July 8, 2015</t>
@@ -849,10 +1137,7 @@
     <t>My family and I stayed in room 209 over the Independence Day weekend. The hotel was clean and quiet. The pool was nice. My only complaint was that there was no hot water. So we took lukewarm showers. The free breakfast was good except the cereal was stale. We were within walking distance from 2 gas stations, a grocery store, and fast food restaurants. I would definately stay again More</t>
   </si>
   <si>
-    <t>162danny</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r284465057-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r284465057-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>284465057</t>
@@ -861,28 +1146,46 @@
     <t>06/30/2015</t>
   </si>
   <si>
-    <t>Will never stay here again.. Had 3 rooms in one visit. The...</t>
-  </si>
-  <si>
-    <t>Will never stay here again.. Had 3 rooms in one visit. The first room soon as I got in the fro t office called and told me they were changing the room cause she thought something was wrong with it. Then the room the did give us the hot water didn't work so they gave me a key to take a shower in another room.  MoreShow less</t>
-  </si>
-  <si>
-    <t>June 2015</t>
-  </si>
-  <si>
-    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded July 3, 2015</t>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded July 3, 2015</t>
   </si>
   <si>
     <t>Responded July 3, 2015</t>
   </si>
   <si>
-    <t>Will never stay here again.. Had 3 rooms in one visit. The first room soon as I got in the fro t office called and told me they were changing the room cause she thought something was wrong with it. Then the room the did give us the hot water didn't work so they gave me a key to take a shower in another room.  More</t>
-  </si>
-  <si>
-    <t>W1294NXstepheng</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r240458387-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r279640428-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>279640428</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded June 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r253592115-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>253592115</t>
+  </si>
+  <si>
+    <t>02/10/2015</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded February 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r240458387-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>240458387</t>
@@ -903,7 +1206,7 @@
     <t>November 2014</t>
   </si>
   <si>
-    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded November 22, 2014</t>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded November 22, 2014</t>
   </si>
   <si>
     <t>Responded November 22, 2014</t>
@@ -915,10 +1218,7 @@
 I did not report the bug problem to the staff. However, based upon the dead one I found at check in, I would assume they are well aware of the issue. The room was clean when I arrived. However, I shudder to think what was crawling around all night...I've stayed at this property a few times, and while it's nothing to write home about, the bugs crawling around the bathroom will keep me away for good from now on. When I checked in, there were none in the bathroom, though I did find a dead bug carcass in the corner. A little black beetle sort of thing. When I woke the next morning and went to take a shower, the entire bathroom was crawling with them. 20 or so, at least. I had to shake three off of the shower curtain, and wash four others down the drain. I took my shower and left. The room was big, the furniture was decent. The bed was comfortable enough and the internet worked well, for what I used it for: checking email. Very dated, with several places along the base boards where the wall was showing damage. Rot, maybe? Not sure. I didn't get close enough to tell. The staff at check in was very friendly and the area where the breakfast was held looked good from a distance. I did not eat breakfast, so I cannot comment on that portion. I did not report the bug problem to the staff. However, based upon the dead one I found at check in, I would assume they are well aware of the issue. The room was clean when I arrived. However, I shudder to think what was crawling around all night while I was sleeping. A $69 dollar rate for one night will not bring me back, as I prefer to shower without the bugsMore</t>
   </si>
   <si>
-    <t>Charles H</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r228170299-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r228170299-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>228170299</t>
@@ -930,10 +1230,7 @@
     <t>September 2014</t>
   </si>
   <si>
-    <t>Agent R.d. S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r220552144-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r220552144-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>220552144</t>
@@ -945,10 +1242,73 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t>Charles T</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r208587276-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r210569993-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>210569993</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>Average overall - will stay there again</t>
+  </si>
+  <si>
+    <t>We were in town for two days.  
+Good:
+Felt like we got good value.
+Sheets were clean and fresh
+A/C worked well, but turn it on when you first get there and leave - come back to a cool room.  It was off when we checked in to the room.  
+Fresh paint on the walls
+Bed was comfortable - pretty firm though - make sure you like that.
+Refrigerator worked well.
+Didn't use pool, but looked like it was clean and in working order - saw other guests using it.
+Water pressure was good
+Coffee maker was there with supplies (we didn't take advantage of it)
+Not so good:
+Door handle was broken on room.  It was secure, but you had to jangle it to open. (To the management's credit, they offered us a different room, but since we felt it was secure, we stayed where we were).  
+The swivel lock on the inside (similar to a chain lock, but the post and hasp type) was broken and about to fall off the door - this needs replaced, but we didn't notice until late on our last night.  I feel if we had complained, the management would have given us a different room with no problem.
+The ice machine was broken, so there was an igloo cooler of ice in the lobby for self service - need to get the machine fixed.
+When I called the front desk, the phone...We were in town for two days.  Good:Felt like we got good value.Sheets were clean and freshA/C worked well, but turn it on when you first get there and leave - come back to a cool room.  It was off when we checked in to the room.  Fresh paint on the wallsBed was comfortable - pretty firm though - make sure you like that.Refrigerator worked well.Didn't use pool, but looked like it was clean and in working order - saw other guests using it.Water pressure was goodCoffee maker was there with supplies (we didn't take advantage of it)Not so good:Door handle was broken on room.  It was secure, but you had to jangle it to open. (To the management's credit, they offered us a different room, but since we felt it was secure, we stayed where we were).  The swivel lock on the inside (similar to a chain lock, but the post and hasp type) was broken and about to fall off the door - this needs replaced, but we didn't notice until late on our last night.  I feel if we had complained, the management would have given us a different room with no problem.The ice machine was broken, so there was an igloo cooler of ice in the lobby for self service - need to get the machine fixed.When I called the front desk, the phone was a little static and crackled - may need to look into that.Overall:Management was friendly, the rooms were clean, and affordable.  We felt like it was a good stay, and we will stay there again when we're in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Super8Forney, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded June 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2014</t>
+  </si>
+  <si>
+    <t>We were in town for two days.  
+Good:
+Felt like we got good value.
+Sheets were clean and fresh
+A/C worked well, but turn it on when you first get there and leave - come back to a cool room.  It was off when we checked in to the room.  
+Fresh paint on the walls
+Bed was comfortable - pretty firm though - make sure you like that.
+Refrigerator worked well.
+Didn't use pool, but looked like it was clean and in working order - saw other guests using it.
+Water pressure was good
+Coffee maker was there with supplies (we didn't take advantage of it)
+Not so good:
+Door handle was broken on room.  It was secure, but you had to jangle it to open. (To the management's credit, they offered us a different room, but since we felt it was secure, we stayed where we were).  
+The swivel lock on the inside (similar to a chain lock, but the post and hasp type) was broken and about to fall off the door - this needs replaced, but we didn't notice until late on our last night.  I feel if we had complained, the management would have given us a different room with no problem.
+The ice machine was broken, so there was an igloo cooler of ice in the lobby for self service - need to get the machine fixed.
+When I called the front desk, the phone...We were in town for two days.  Good:Felt like we got good value.Sheets were clean and freshA/C worked well, but turn it on when you first get there and leave - come back to a cool room.  It was off when we checked in to the room.  Fresh paint on the wallsBed was comfortable - pretty firm though - make sure you like that.Refrigerator worked well.Didn't use pool, but looked like it was clean and in working order - saw other guests using it.Water pressure was goodCoffee maker was there with supplies (we didn't take advantage of it)Not so good:Door handle was broken on room.  It was secure, but you had to jangle it to open. (To the management's credit, they offered us a different room, but since we felt it was secure, we stayed where we were).  The swivel lock on the inside (similar to a chain lock, but the post and hasp type) was broken and about to fall off the door - this needs replaced, but we didn't notice until late on our last night.  I feel if we had complained, the management would have given us a different room with no problem.The ice machine was broken, so there was an igloo cooler of ice in the lobby for self service - need to get the machine fixed.When I called the front desk, the phone was a little static and crackled - may need to look into that.Overall:Management was friendly, the rooms were clean, and affordable.  We felt like it was a good stay, and we will stay there again when we're in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r210404003-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>210404003</t>
+  </si>
+  <si>
+    <t>06/15/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r208587276-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>208587276</t>
@@ -966,19 +1326,10 @@
     <t>May 2014</t>
   </si>
   <si>
-    <t>Super8Forney, Manager at Super 8 Forney, responded to this reviewResponded June 26, 2014</t>
-  </si>
-  <si>
-    <t>Responded June 26, 2014</t>
-  </si>
-  <si>
     <t>Property is in need of freshening. Handicap room was cobbled together. No ice machine, older television. Staff very helpful and courteous.More</t>
   </si>
   <si>
-    <t>Mark B</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r207038315-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r207038315-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>207038315</t>
@@ -996,10 +1347,7 @@
     <t>The room was good. It was clean and the staff was great! Great price and a nice pool. We have used this hotel many times and always feel safe. More</t>
   </si>
   <si>
-    <t>Anthony S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r186834774-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r186834774-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>186834774</t>
@@ -1008,22 +1356,31 @@
     <t>12/05/2013</t>
   </si>
   <si>
-    <t>refund needed</t>
-  </si>
-  <si>
-    <t>no internet, water leak, toilet would not flush, no hot water just warm etc. changed rooms , still no wifi even with a cable, cabinet fell apart, had to use my own batteries in t.v remote, just terrible stayMoreShow less</t>
-  </si>
-  <si>
     <t>November 2013</t>
   </si>
   <si>
-    <t>no internet, water leak, toilet would not flush, no hot water just warm etc. changed rooms , still no wifi even with a cable, cabinet fell apart, had to use my own batteries in t.v remote, just terrible stayMore</t>
-  </si>
-  <si>
-    <t>Donita W</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r186179743-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r186671154-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>186671154</t>
+  </si>
+  <si>
+    <t>12/03/2013</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r186517045-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>186517045</t>
+  </si>
+  <si>
+    <t>12/02/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r186179743-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>186179743</t>
@@ -1038,7 +1395,7 @@
     <t>My family of 7 is very picky about hotels. In the last 10 years we've always stayed at Marriott Hotels. We had vehicle issues and HAD to stop here, the nearest motel. This Super 8 was clean and the man at front desk was GREAT!  He let us stay after checkout while we were getting our truck fixed. Definitely would stay here again!!!MoreShow less</t>
   </si>
   <si>
-    <t>Pankaj K, Manager at Super 8 Forney, responded to this reviewResponded December 1, 2013</t>
+    <t>Pankaj K, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded December 1, 2013</t>
   </si>
   <si>
     <t>Responded December 1, 2013</t>
@@ -1047,10 +1404,7 @@
     <t>My family of 7 is very picky about hotels. In the last 10 years we've always stayed at Marriott Hotels. We had vehicle issues and HAD to stop here, the nearest motel. This Super 8 was clean and the man at front desk was GREAT!  He let us stay after checkout while we were getting our truck fixed. Definitely would stay here again!!!More</t>
   </si>
   <si>
-    <t>Carolyn J J</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r178959575-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r178959575-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>178959575</t>
@@ -1068,7 +1422,7 @@
     <t>September 2013</t>
   </si>
   <si>
-    <t>Pankaj K, Manager at Super 8 Forney, responded to this reviewResponded October 7, 2013</t>
+    <t>Pankaj K, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded October 7, 2013</t>
   </si>
   <si>
     <t>Responded October 7, 2013</t>
@@ -1077,10 +1431,7 @@
     <t>Spent two nights here.   It is conveniently located on the main highway.  The room was clean and the staff was very pleasant and helpful!!!   I will stay here again!!!!   A pleasant experience!!!!   I would definitely recommend it to my friends!!!More</t>
   </si>
   <si>
-    <t>Melissa R</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r177601814-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r177601814-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>177601814</t>
@@ -1098,10 +1449,37 @@
     <t>We stay at this hotel the same time every year and this year we were very pleased !! The rooms were upgraded, the pool was sparkling, the breakfast MUCH better, the beds comfortable and the hotel staff actually was very friendly. The only problem we had was the water was warm and not hot at all but otherwise we will stay here again !! More</t>
   </si>
   <si>
-    <t>Jack K</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r169031635-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r176245779-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>176245779</t>
+  </si>
+  <si>
+    <t>09/07/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r170071122-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>170071122</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Pankaj K, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded August 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r169031635-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>169031635</t>
@@ -1116,22 +1494,10 @@
     <t>Wonderful spacious, clean room with great king-size bed and lots of tv channels &amp; small refrigerator. Seems to be like recently remodeled with fresh paint, Great room for a traveling couple or family. Clean and well-maintained bathroom facilities which is what most concerns me while staying out. Very nice breakfast. Friendly staff. Would gladly stay here again.MoreShow less</t>
   </si>
   <si>
-    <t>July 2013</t>
-  </si>
-  <si>
-    <t>Pankaj K, Manager at Super 8 Forney, responded to this reviewResponded August 2, 2013</t>
-  </si>
-  <si>
-    <t>Responded August 2, 2013</t>
-  </si>
-  <si>
     <t>Wonderful spacious, clean room with great king-size bed and lots of tv channels &amp; small refrigerator. Seems to be like recently remodeled with fresh paint, Great room for a traveling couple or family. Clean and well-maintained bathroom facilities which is what most concerns me while staying out. Very nice breakfast. Friendly staff. Would gladly stay here again.More</t>
   </si>
   <si>
-    <t>L0TAX</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r168983872-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r168983872-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>168983872</t>
@@ -1146,10 +1512,7 @@
     <t>I always include the room I occupy for the business traveler.  I stayed in room 203 at the top of the stairs and the air conditioning was inadequate for a really good night's sleep.  The room did not become comfortable until 1:30 in the morning-yes, after midnight!More</t>
   </si>
   <si>
-    <t>ChandlerRoberts</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r167396341-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r167396341-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>167396341</t>
@@ -1164,7 +1527,7 @@
     <t>This is a comfortable and clean hotel. I have stayed here multiple times over the past four years and plan my route to be here for the night. The owners are friendly, helpful and just nice people. And the price! Can't beat it for twice the money. This is a terrific hotel!MoreShow less</t>
   </si>
   <si>
-    <t>Pankaj K, Manager at Super 8 Forney, responded to this reviewResponded July 18, 2013</t>
+    <t>Pankaj K, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded July 18, 2013</t>
   </si>
   <si>
     <t>Responded July 18, 2013</t>
@@ -1173,10 +1536,34 @@
     <t>This is a comfortable and clean hotel. I have stayed here multiple times over the past four years and plan my route to be here for the night. The owners are friendly, helpful and just nice people. And the price! Can't beat it for twice the money. This is a terrific hotel!More</t>
   </si>
   <si>
-    <t>Summer R</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r163565056-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r165683154-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>165683154</t>
+  </si>
+  <si>
+    <t>06/29/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Pankaj K, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded July 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r163865479-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>163865479</t>
+  </si>
+  <si>
+    <t>06/13/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r163565056-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>163565056</t>
@@ -1185,19 +1572,13 @@
     <t>06/10/2013</t>
   </si>
   <si>
-    <t>June 2013</t>
-  </si>
-  <si>
-    <t>Pankaj K, Manager at Super 8 Forney, responded to this reviewResponded June 11, 2013</t>
+    <t>Pankaj K, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded June 11, 2013</t>
   </si>
   <si>
     <t>Responded June 11, 2013</t>
   </si>
   <si>
-    <t>Adv5110</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r159252414-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r159252414-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>159252414</t>
@@ -1212,7 +1593,7 @@
     <t>My wife and I stayed here after a long night traveling. It was easy to find with no hassle getting our room. Room was large and spacious. Would have liked better parking. It you're not hauling anything, this is no issue. I would recommend this hotel. MoreShow less</t>
   </si>
   <si>
-    <t>Pankaj K, Manager at Super 8 Forney, responded to this reviewResponded May 24, 2013</t>
+    <t>Pankaj K, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded May 24, 2013</t>
   </si>
   <si>
     <t>Responded May 24, 2013</t>
@@ -1221,10 +1602,7 @@
     <t>My wife and I stayed here after a long night traveling. It was easy to find with no hassle getting our room. Room was large and spacious. Would have liked better parking. It you're not hauling anything, this is no issue. I would recommend this hotel. More</t>
   </si>
   <si>
-    <t>Larry M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r158480166-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r158480166-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>158480166</t>
@@ -1236,10 +1614,40 @@
     <t>March 2013</t>
   </si>
   <si>
-    <t>Steve H</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r153277847-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r155299695-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>155299695</t>
+  </si>
+  <si>
+    <t>03/21/2013</t>
+  </si>
+  <si>
+    <t>Not a good stay for me and the family.</t>
+  </si>
+  <si>
+    <t>Got to the hotel and got my keys to find out that my room was next to the ice machine with a very bright light glowing into my room. All night al we heard was the ice machine running and people talking around the room. We didnt have cold water at all the whole weekend cause the mgmt said that they had to turn the hot water up cause of the hotel being sold out which was A lie  cause I didn't see many people there that weekend. So it was very hard giving my toddler a bath with such hot water. Tub drained slowwww, ask for extra towel and it was like pulling teeth. Room service people were friendly. Next year I will stay across the street. Not happy.MoreShow less</t>
+  </si>
+  <si>
+    <t>Got to the hotel and got my keys to find out that my room was next to the ice machine with a very bright light glowing into my room. All night al we heard was the ice machine running and people talking around the room. We didnt have cold water at all the whole weekend cause the mgmt said that they had to turn the hot water up cause of the hotel being sold out which was A lie  cause I didn't see many people there that weekend. So it was very hard giving my toddler a bath with such hot water. Tub drained slowwww, ask for extra towel and it was like pulling teeth. Room service people were friendly. Next year I will stay across the street. Not happy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r154025689-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>154025689</t>
+  </si>
+  <si>
+    <t>03/08/2013</t>
+  </si>
+  <si>
+    <t>Pankaj K, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded March 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r153277847-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>153277847</t>
@@ -1257,19 +1665,10 @@
     <t>December 2012</t>
   </si>
   <si>
-    <t>Pankaj K, Manager at Super 8 Forney, responded to this reviewResponded March 25, 2013</t>
-  </si>
-  <si>
-    <t>Responded March 25, 2013</t>
-  </si>
-  <si>
     <t>hole in room wall, slick disabled shower floor, tv remote required constant re-programming. All carbo breakfast. toilet plugged, staff had us unplug. It is cheap, you get what you pay for... other guests had to ask for extra towels, and staff acted like they were stealing.More</t>
   </si>
   <si>
-    <t>TERESA M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r144961565-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r144961565-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>144961565</t>
@@ -1281,16 +1680,13 @@
     <t>October 2012</t>
   </si>
   <si>
-    <t>Pankaj K, Manager at Super 8 Forney, responded to this reviewResponded December 15, 2012</t>
+    <t>Pankaj K, Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded December 15, 2012</t>
   </si>
   <si>
     <t>Responded December 15, 2012</t>
   </si>
   <si>
-    <t>Jessica M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r138442568-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r138442568-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>138442568</t>
@@ -1308,7 +1704,7 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t>Pankaj K, General Manager at Super 8 Forney, responded to this reviewResponded September 2, 2012</t>
+    <t>Pankaj K, General Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded September 2, 2012</t>
   </si>
   <si>
     <t>Responded September 2, 2012</t>
@@ -1317,10 +1713,58 @@
     <t>The room was clean and updated. The beds were so cozy that I couldnt even wake up the next morning! Breakfast consisted of pastries, fruits, yogurt, HOT WAFFLES, and much more! The staff was extremely nice and helpful. For half the price of the Best Western across the highway, the Super 8 was perfect!More</t>
   </si>
   <si>
-    <t>bash122</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r37713307-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r137646265-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>137646265</t>
+  </si>
+  <si>
+    <t>08/19/2012</t>
+  </si>
+  <si>
+    <t>This hotel is in a great location, with easy off/on, Great, clean rooms and great service, and with a fair price!</t>
+  </si>
+  <si>
+    <t>I'm a driver when I travel, that is I drive unil I get there and stop when it's time to stop. I try to find a hotel early and never know when or where I will be so making plans is out. When I stumble on a hotel like this Super 8 Forney I put it on my list and try to make it a regular stop even if it means stopping a little early or late. Super 8 Forney is close to an easy off/on exit , the room was large and super clean, the staff was friendly and helpful. The price was good and less than what I thought it would be. MoreShow less</t>
+  </si>
+  <si>
+    <t>Pankaj K, General Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded August 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2012</t>
+  </si>
+  <si>
+    <t>I'm a driver when I travel, that is I drive unil I get there and stop when it's time to stop. I try to find a hotel early and never know when or where I will be so making plans is out. When I stumble on a hotel like this Super 8 Forney I put it on my list and try to make it a regular stop even if it means stopping a little early or late. Super 8 Forney is close to an easy off/on exit , the room was large and super clean, the staff was friendly and helpful. The price was good and less than what I thought it would be. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r98235572-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
+  </si>
+  <si>
+    <t>98235572</t>
+  </si>
+  <si>
+    <t>02/27/2011</t>
+  </si>
+  <si>
+    <t>Clean room but incredibly uncomfortable bed!</t>
+  </si>
+  <si>
+    <t>Using the online price discount sites, you can get a great price on a room but buyers beware!  Once you have paid for the room, you may be stuck.  At this Super 8 in Forney, the room was clean but the bedspread was stained with a blood spot on the underside of it.  The bed was old and extremely hard and uncomfortable.  A good night’s rest was not in the cards at this hotel!  When we sat or lay down on the bed, it made a squeaking noise. Wire cabling running around the edge of the mattress hurt our legs when getting in or out of the bed and the cushioning in the bed was shot!  Maintenance was bad.  The ice machine was out of order throughout our five night stay.  The electrical outlet by the lavatory was so loose it was hanging out of the wall and could be moved around by hand; an obvious electrical shock hazard! The refrigerator did not work and occasionally made a cracking or popping noise. The on/off switch on the remote control to the TV did not work; however, the volume and channel buttons worked.  A handle on the dresser drawer was missing a screw leaving the handle dangling.  A room divider wall (half wall) was loose enough to move if you pushed or leaned on it. There was no telephone book in the room.  We cannot recommend nor would we stay at...Using the online price discount sites, you can get a great price on a room but buyers beware!  Once you have paid for the room, you may be stuck.  At this Super 8 in Forney, the room was clean but the bedspread was stained with a blood spot on the underside of it.  The bed was old and extremely hard and uncomfortable.  A good night’s rest was not in the cards at this hotel!  When we sat or lay down on the bed, it made a squeaking noise. Wire cabling running around the edge of the mattress hurt our legs when getting in or out of the bed and the cushioning in the bed was shot!  Maintenance was bad.  The ice machine was out of order throughout our five night stay.  The electrical outlet by the lavatory was so loose it was hanging out of the wall and could be moved around by hand; an obvious electrical shock hazard! The refrigerator did not work and occasionally made a cracking or popping noise. The on/off switch on the remote control to the TV did not work; however, the volume and channel buttons worked.  A handle on the dresser drawer was missing a screw leaving the handle dangling.  A room divider wall (half wall) was loose enough to move if you pushed or leaned on it. There was no telephone book in the room.  We cannot recommend nor would we stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>manav1, General Manager at Super 8 by Wyndham Forney/East Dallas, responded to this reviewResponded July 24, 2011</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2011</t>
+  </si>
+  <si>
+    <t>Using the online price discount sites, you can get a great price on a room but buyers beware!  Once you have paid for the room, you may be stuck.  At this Super 8 in Forney, the room was clean but the bedspread was stained with a blood spot on the underside of it.  The bed was old and extremely hard and uncomfortable.  A good night’s rest was not in the cards at this hotel!  When we sat or lay down on the bed, it made a squeaking noise. Wire cabling running around the edge of the mattress hurt our legs when getting in or out of the bed and the cushioning in the bed was shot!  Maintenance was bad.  The ice machine was out of order throughout our five night stay.  The electrical outlet by the lavatory was so loose it was hanging out of the wall and could be moved around by hand; an obvious electrical shock hazard! The refrigerator did not work and occasionally made a cracking or popping noise. The on/off switch on the remote control to the TV did not work; however, the volume and channel buttons worked.  A handle on the dresser drawer was missing a screw leaving the handle dangling.  A room divider wall (half wall) was loose enough to move if you pushed or leaned on it. There was no telephone book in the room.  We cannot recommend nor would we stay at...Using the online price discount sites, you can get a great price on a room but buyers beware!  Once you have paid for the room, you may be stuck.  At this Super 8 in Forney, the room was clean but the bedspread was stained with a blood spot on the underside of it.  The bed was old and extremely hard and uncomfortable.  A good night’s rest was not in the cards at this hotel!  When we sat or lay down on the bed, it made a squeaking noise. Wire cabling running around the edge of the mattress hurt our legs when getting in or out of the bed and the cushioning in the bed was shot!  Maintenance was bad.  The ice machine was out of order throughout our five night stay.  The electrical outlet by the lavatory was so loose it was hanging out of the wall and could be moved around by hand; an obvious electrical shock hazard! The refrigerator did not work and occasionally made a cracking or popping noise. The on/off switch on the remote control to the TV did not work; however, the volume and channel buttons worked.  A handle on the dresser drawer was missing a screw leaving the handle dangling.  A room divider wall (half wall) was loose enough to move if you pushed or leaned on it. There was no telephone book in the room.  We cannot recommend nor would we stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r37713307-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>37713307</t>
@@ -1338,19 +1782,10 @@
     <t>August 2009</t>
   </si>
   <si>
-    <t>manav1, General Manager at Super 8 Forney, responded to this reviewResponded July 24, 2011</t>
-  </si>
-  <si>
-    <t>Responded July 24, 2011</t>
-  </si>
-  <si>
     <t>During our stay here service was exceptional from the front desk to house keeping, they were great. And the rooms were clean! This hotel should be rated a four star...More</t>
   </si>
   <si>
-    <t>ttutexasmom</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r3767126-Super_8_Forney-Forney_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55850-d483324-r3767126-Super_8_by_Wyndham_Forney_East_Dallas-Forney_Texas.html</t>
   </si>
   <si>
     <t>3767126</t>
@@ -1870,336 +2305,324 @@
       <c r="A2" t="n">
         <v>38057</v>
       </c>
-      <c r="B2" t="n">
-        <v>178676</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s"/>
+      <c r="L2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
         <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>38057</v>
       </c>
-      <c r="B3" t="n">
-        <v>178677</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
       <c r="P3" t="n">
         <v>5</v>
       </c>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>38057</v>
       </c>
-      <c r="B4" t="n">
-        <v>178678</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>38057</v>
       </c>
-      <c r="B5" t="n">
-        <v>48626</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>38057</v>
       </c>
-      <c r="B6" t="n">
-        <v>178679</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
       </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
         <v>5</v>
@@ -2208,60 +2631,56 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>38057</v>
       </c>
-      <c r="B7" t="n">
-        <v>178680</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2273,271 +2692,257 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="X7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="Y7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>38057</v>
       </c>
-      <c r="B8" t="n">
-        <v>178681</v>
-      </c>
-      <c r="C8" t="s">
-        <v>105</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="X8" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="Y8" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>38057</v>
       </c>
-      <c r="B9" t="n">
-        <v>2349</v>
-      </c>
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="X9" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="Y9" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>38057</v>
       </c>
-      <c r="B10" t="n">
-        <v>304</v>
-      </c>
-      <c r="C10" t="s">
-        <v>125</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>128</v>
-      </c>
-      <c r="K10" t="s">
-        <v>129</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="K10" t="s"/>
       <c r="L10" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
         <v>4</v>
       </c>
       <c r="R10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="X10" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="Y10" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>38057</v>
       </c>
-      <c r="B11" t="n">
-        <v>178682</v>
-      </c>
-      <c r="C11" t="s">
-        <v>135</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2549,1483 +2954,1411 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="X11" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="Y11" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>38057</v>
       </c>
-      <c r="B12" t="n">
-        <v>178683</v>
-      </c>
-      <c r="C12" t="s">
-        <v>145</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>148</v>
-      </c>
-      <c r="K12" t="s">
-        <v>149</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="K12" t="s"/>
       <c r="L12" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R12" t="n">
         <v>5</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="X12" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="Y12" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>38057</v>
       </c>
-      <c r="B13" t="n">
-        <v>178684</v>
-      </c>
-      <c r="C13" t="s">
-        <v>155</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="J13" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="O13" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="X13" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="Y13" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>38057</v>
       </c>
-      <c r="B14" t="n">
-        <v>178685</v>
-      </c>
-      <c r="C14" t="s">
-        <v>164</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
-        <v>167</v>
-      </c>
-      <c r="K14" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="K14" t="s">
+        <v>140</v>
+      </c>
       <c r="L14" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s">
-        <v>121</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>3</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="X14" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="Y14" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>38057</v>
       </c>
-      <c r="B15" t="n">
-        <v>178686</v>
-      </c>
-      <c r="C15" t="s">
-        <v>171</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>174</v>
-      </c>
-      <c r="K15" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
       <c r="L15" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="X15" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="Y15" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>38057</v>
       </c>
-      <c r="B16" t="n">
-        <v>178687</v>
-      </c>
-      <c r="C16" t="s">
-        <v>178</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="X16" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="Y16" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>38057</v>
       </c>
-      <c r="B17" t="n">
-        <v>178688</v>
-      </c>
-      <c r="C17" t="s">
-        <v>187</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>82</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
       <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="X17" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="Y17" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>38057</v>
       </c>
-      <c r="B18" t="n">
-        <v>178689</v>
-      </c>
-      <c r="C18" t="s">
-        <v>197</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>200</v>
-      </c>
-      <c r="K18" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="K18" t="s">
+        <v>172</v>
+      </c>
       <c r="L18" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="O18" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="X18" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="Y18" t="s">
-        <v>94</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>38057</v>
       </c>
-      <c r="B19" t="n">
-        <v>178690</v>
-      </c>
-      <c r="C19" t="s">
-        <v>203</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="X19" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="Y19" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>38057</v>
       </c>
-      <c r="B20" t="n">
-        <v>178691</v>
-      </c>
-      <c r="C20" t="s">
-        <v>213</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>216</v>
-      </c>
-      <c r="K20" t="s"/>
+        <v>187</v>
+      </c>
+      <c r="K20" t="s">
+        <v>188</v>
+      </c>
       <c r="L20" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="O20" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S20" t="n">
         <v>2</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="X20" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="Y20" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>38057</v>
       </c>
-      <c r="B21" t="n">
-        <v>178692</v>
-      </c>
-      <c r="C21" t="s">
-        <v>220</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="J21" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="K21" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
       <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="X21" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="Y21" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>38057</v>
       </c>
-      <c r="B22" t="n">
-        <v>6383</v>
-      </c>
-      <c r="C22" t="s">
-        <v>228</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="J22" t="s">
-        <v>231</v>
-      </c>
-      <c r="K22" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="K22" t="s">
+        <v>205</v>
+      </c>
       <c r="L22" t="s">
-        <v>90</v>
+        <v>206</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>4</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="X22" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="Y22" t="s">
-        <v>94</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>38057</v>
       </c>
-      <c r="B23" t="n">
-        <v>178693</v>
-      </c>
-      <c r="C23" t="s">
-        <v>235</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="J23" t="s">
-        <v>238</v>
-      </c>
-      <c r="K23" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="K23" t="s">
+        <v>214</v>
+      </c>
       <c r="L23" t="s">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="X23" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="Y23" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>38057</v>
       </c>
-      <c r="B24" t="n">
-        <v>178694</v>
-      </c>
-      <c r="C24" t="s">
-        <v>242</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="J24" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
         <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="X24" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="Y24" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>38057</v>
       </c>
-      <c r="B25" t="n">
-        <v>44874</v>
-      </c>
-      <c r="C25" t="s">
-        <v>248</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="J25" t="s">
-        <v>251</v>
-      </c>
-      <c r="K25" t="s">
-        <v>252</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="K25" t="s"/>
       <c r="L25" t="s">
-        <v>253</v>
+        <v>49</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="X25" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Y25" t="s">
-        <v>257</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>38057</v>
       </c>
-      <c r="B26" t="n">
-        <v>7535</v>
-      </c>
-      <c r="C26" t="s">
-        <v>258</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="J26" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="K26" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="L26" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>4</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="X26" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="Y26" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>38057</v>
       </c>
-      <c r="B27" t="n">
-        <v>178695</v>
-      </c>
-      <c r="C27" t="s">
-        <v>267</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="J27" t="s">
-        <v>270</v>
-      </c>
-      <c r="K27" t="s">
-        <v>271</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="K27" t="s"/>
       <c r="L27" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="O27" t="s">
-        <v>273</v>
-      </c>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="X27" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="Y27" t="s">
-        <v>276</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>38057</v>
       </c>
-      <c r="B28" t="n">
-        <v>178696</v>
-      </c>
-      <c r="C28" t="s">
-        <v>277</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="J28" t="s">
-        <v>280</v>
-      </c>
-      <c r="K28" t="s">
-        <v>281</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="K28" t="s"/>
       <c r="L28" t="s">
-        <v>282</v>
+        <v>49</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="O28" t="s">
-        <v>73</v>
-      </c>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="X28" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="Y28" t="s">
-        <v>286</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>38057</v>
       </c>
-      <c r="B29" t="n">
-        <v>178697</v>
-      </c>
-      <c r="C29" t="s">
-        <v>287</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="J29" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="K29" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="O29" t="s">
-        <v>73</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
       <c r="R29" t="n">
-        <v>3</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="X29" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="Y29" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>38057</v>
       </c>
-      <c r="B30" t="n">
-        <v>10441</v>
-      </c>
-      <c r="C30" t="s">
-        <v>297</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="J30" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="O30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S30" t="n">
         <v>4</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="X30" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="Y30" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>38057</v>
       </c>
-      <c r="B31" t="n">
-        <v>178698</v>
-      </c>
-      <c r="C31" t="s">
-        <v>302</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="J31" t="s">
-        <v>305</v>
-      </c>
-      <c r="K31" t="s"/>
+        <v>266</v>
+      </c>
+      <c r="K31" t="s">
+        <v>267</v>
+      </c>
       <c r="L31" t="s">
-        <v>90</v>
+        <v>268</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="O31" t="s">
-        <v>82</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="X31" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="Y31" t="s">
-        <v>94</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>38057</v>
       </c>
-      <c r="B32" t="n">
-        <v>24974</v>
-      </c>
-      <c r="C32" t="s">
-        <v>307</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="J32" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="K32" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="O32" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q32" t="n">
         <v>3</v>
@@ -4038,287 +4371,255 @@
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="X32" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="Y32" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>38057</v>
       </c>
-      <c r="B33" t="n">
-        <v>2433</v>
-      </c>
-      <c r="C33" t="s">
-        <v>317</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="J33" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="K33" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="O33" t="s">
-        <v>121</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="X33" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="Y33" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>38057</v>
       </c>
-      <c r="B34" t="n">
-        <v>7595</v>
-      </c>
-      <c r="C34" t="s">
-        <v>324</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="J34" t="s">
-        <v>327</v>
-      </c>
-      <c r="K34" t="s">
-        <v>328</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="K34" t="s"/>
       <c r="L34" t="s">
-        <v>329</v>
+        <v>49</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="O34" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="X34" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="Y34" t="s">
-        <v>331</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>38057</v>
       </c>
-      <c r="B35" t="n">
-        <v>178699</v>
-      </c>
-      <c r="C35" t="s">
-        <v>332</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="J35" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="K35" t="s">
-        <v>336</v>
+        <v>10</v>
       </c>
       <c r="L35" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>278</v>
+      </c>
+      <c r="O35" t="s">
+        <v>65</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="X35" t="s">
-        <v>339</v>
+        <v>298</v>
       </c>
       <c r="Y35" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>38057</v>
       </c>
-      <c r="B36" t="n">
-        <v>178700</v>
-      </c>
-      <c r="C36" t="s">
-        <v>341</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
       <c r="J36" t="s">
-        <v>344</v>
-      </c>
-      <c r="K36" t="s">
-        <v>345</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="K36" t="s"/>
       <c r="L36" t="s">
-        <v>346</v>
+        <v>49</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="O36" t="s">
-        <v>273</v>
+        <v>65</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4330,157 +4631,139 @@
         <v>5</v>
       </c>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="X36" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="Y36" t="s">
-        <v>350</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>38057</v>
       </c>
-      <c r="B37" t="n">
-        <v>14877</v>
-      </c>
-      <c r="C37" t="s">
-        <v>351</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="J37" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="K37" t="s">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="L37" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>4</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="X37" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="Y37" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>38057</v>
       </c>
-      <c r="B38" t="n">
-        <v>178701</v>
-      </c>
-      <c r="C38" t="s">
-        <v>358</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="J38" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="K38" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="L38" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R38" t="n">
         <v>5</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
@@ -4490,658 +4773,592 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>365</v>
+        <v>313</v>
       </c>
       <c r="X38" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
       <c r="Y38" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>38057</v>
       </c>
-      <c r="B39" t="n">
-        <v>178702</v>
-      </c>
-      <c r="C39" t="s">
-        <v>368</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="J39" t="s">
-        <v>361</v>
-      </c>
-      <c r="K39" t="s">
-        <v>371</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="K39" t="s"/>
       <c r="L39" t="s">
-        <v>372</v>
+        <v>49</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="O39" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="P39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="X39" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="Y39" t="s">
-        <v>373</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>38057</v>
       </c>
-      <c r="B40" t="n">
-        <v>178703</v>
-      </c>
-      <c r="C40" t="s">
-        <v>374</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="J40" t="s">
-        <v>377</v>
-      </c>
-      <c r="K40" t="s">
-        <v>378</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="K40" t="s"/>
       <c r="L40" t="s">
-        <v>379</v>
+        <v>49</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
-      </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>326</v>
+      </c>
+      <c r="O40" t="s">
+        <v>65</v>
+      </c>
       <c r="P40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R40" t="n">
         <v>5</v>
       </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="X40" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="Y40" t="s">
-        <v>382</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>38057</v>
       </c>
-      <c r="B41" t="n">
-        <v>73502</v>
-      </c>
-      <c r="C41" t="s">
-        <v>383</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="J41" t="s">
-        <v>386</v>
-      </c>
-      <c r="K41" t="s"/>
+        <v>336</v>
+      </c>
+      <c r="K41" t="s">
+        <v>337</v>
+      </c>
       <c r="L41" t="s">
-        <v>90</v>
+        <v>338</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="O41" t="s">
-        <v>73</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2</v>
-      </c>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
-      <c r="S41" t="n">
-        <v>3</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>3</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="X41" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="Y41" t="s">
-        <v>94</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>38057</v>
       </c>
-      <c r="B42" t="n">
-        <v>178704</v>
-      </c>
-      <c r="C42" t="s">
-        <v>390</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="J42" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="K42" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="L42" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
-      <c r="N42" t="s"/>
-      <c r="O42" t="s"/>
+      <c r="N42" t="s">
+        <v>348</v>
+      </c>
+      <c r="O42" t="s">
+        <v>51</v>
+      </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S42" t="n">
         <v>4</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="X42" t="s">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="Y42" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>38057</v>
       </c>
-      <c r="B43" t="n">
-        <v>561</v>
-      </c>
-      <c r="C43" t="s">
-        <v>399</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="J43" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>403</v>
+        <v>339</v>
       </c>
       <c r="O43" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q43" t="n">
         <v>3</v>
       </c>
       <c r="R43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>396</v>
+        <v>355</v>
       </c>
       <c r="X43" t="s">
-        <v>397</v>
+        <v>356</v>
       </c>
       <c r="Y43" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>38057</v>
       </c>
-      <c r="B44" t="n">
-        <v>7500</v>
-      </c>
-      <c r="C44" t="s">
-        <v>404</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="J44" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="K44" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="L44" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>410</v>
+        <v>339</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
-      </c>
-      <c r="P44" t="n">
-        <v>4</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P44" t="s"/>
       <c r="Q44" t="n">
         <v>1</v>
       </c>
       <c r="R44" t="n">
-        <v>3</v>
-      </c>
-      <c r="S44" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>411</v>
+        <v>362</v>
       </c>
       <c r="X44" t="s">
-        <v>412</v>
+        <v>363</v>
       </c>
       <c r="Y44" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>38057</v>
       </c>
-      <c r="B45" t="n">
-        <v>178705</v>
-      </c>
-      <c r="C45" t="s">
-        <v>414</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="J45" t="s">
-        <v>417</v>
-      </c>
-      <c r="K45" t="s"/>
+        <v>367</v>
+      </c>
+      <c r="K45" t="s">
+        <v>368</v>
+      </c>
       <c r="L45" t="s">
-        <v>90</v>
+        <v>369</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>418</v>
+        <v>339</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>419</v>
+        <v>370</v>
       </c>
       <c r="X45" t="s">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="Y45" t="s">
-        <v>94</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>38057</v>
       </c>
-      <c r="B46" t="n">
-        <v>1401</v>
-      </c>
-      <c r="C46" t="s">
-        <v>421</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>422</v>
+        <v>373</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="J46" t="s">
-        <v>424</v>
-      </c>
-      <c r="K46" t="s">
-        <v>425</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="K46" t="s"/>
       <c r="L46" t="s">
-        <v>426</v>
+        <v>49</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>427</v>
+        <v>348</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>5</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>428</v>
+        <v>376</v>
       </c>
       <c r="X46" t="s">
-        <v>429</v>
+        <v>377</v>
       </c>
       <c r="Y46" t="s">
-        <v>430</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>38057</v>
       </c>
-      <c r="B47" t="n">
-        <v>178706</v>
-      </c>
-      <c r="C47" t="s">
-        <v>431</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>432</v>
+        <v>378</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>433</v>
+        <v>379</v>
       </c>
       <c r="J47" t="s">
-        <v>434</v>
-      </c>
-      <c r="K47" t="s">
-        <v>435</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="K47" t="s"/>
       <c r="L47" t="s">
-        <v>436</v>
+        <v>49</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>437</v>
+        <v>348</v>
       </c>
       <c r="O47" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
       </c>
       <c r="Q47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R47" t="n">
         <v>5</v>
       </c>
       <c r="S47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
@@ -5151,57 +5368,55 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>438</v>
+        <v>381</v>
       </c>
       <c r="X47" t="s">
-        <v>439</v>
+        <v>382</v>
       </c>
       <c r="Y47" t="s">
-        <v>440</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>38057</v>
       </c>
-      <c r="B48" t="n">
-        <v>178707</v>
-      </c>
-      <c r="C48" t="s">
-        <v>441</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>442</v>
+        <v>383</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>443</v>
+        <v>384</v>
       </c>
       <c r="J48" t="s">
-        <v>444</v>
-      </c>
-      <c r="K48" t="s">
-        <v>445</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="K48" t="s"/>
       <c r="L48" t="s">
-        <v>446</v>
+        <v>49</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
-      <c r="N48" t="s"/>
-      <c r="O48" t="s"/>
+      <c r="N48" t="s">
+        <v>386</v>
+      </c>
+      <c r="O48" t="s">
+        <v>58</v>
+      </c>
       <c r="P48" t="n">
         <v>4</v>
       </c>
@@ -5220,13 +5435,2235 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
+        <v>387</v>
+      </c>
+      <c r="X48" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>389</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>390</v>
+      </c>
+      <c r="J49" t="s">
+        <v>391</v>
+      </c>
+      <c r="K49" t="s">
+        <v>392</v>
+      </c>
+      <c r="L49" t="s">
+        <v>393</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>394</v>
+      </c>
+      <c r="O49" t="s">
+        <v>83</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>395</v>
+      </c>
+      <c r="X49" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>398</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>399</v>
+      </c>
+      <c r="J50" t="s">
+        <v>400</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s">
+        <v>49</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>401</v>
+      </c>
+      <c r="O50" t="s">
+        <v>51</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>395</v>
+      </c>
+      <c r="X50" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>402</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>403</v>
+      </c>
+      <c r="J51" t="s">
+        <v>404</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s">
+        <v>49</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>405</v>
+      </c>
+      <c r="O51" t="s">
+        <v>51</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>395</v>
+      </c>
+      <c r="X51" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>406</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>407</v>
+      </c>
+      <c r="J52" t="s">
+        <v>408</v>
+      </c>
+      <c r="K52" t="s">
+        <v>409</v>
+      </c>
+      <c r="L52" t="s">
+        <v>410</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>411</v>
+      </c>
+      <c r="O52" t="s">
+        <v>65</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>412</v>
+      </c>
+      <c r="X52" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>415</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>416</v>
+      </c>
+      <c r="J53" t="s">
+        <v>417</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s">
+        <v>49</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>411</v>
+      </c>
+      <c r="O53" t="s">
+        <v>65</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>412</v>
+      </c>
+      <c r="X53" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>418</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>419</v>
+      </c>
+      <c r="J54" t="s">
+        <v>420</v>
+      </c>
+      <c r="K54" t="s">
+        <v>421</v>
+      </c>
+      <c r="L54" t="s">
+        <v>422</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>423</v>
+      </c>
+      <c r="O54" t="s">
+        <v>51</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>412</v>
+      </c>
+      <c r="X54" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>425</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>426</v>
+      </c>
+      <c r="J55" t="s">
+        <v>427</v>
+      </c>
+      <c r="K55" t="s">
+        <v>428</v>
+      </c>
+      <c r="L55" t="s">
+        <v>429</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>423</v>
+      </c>
+      <c r="O55" t="s">
+        <v>58</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>412</v>
+      </c>
+      <c r="X55" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>431</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>432</v>
+      </c>
+      <c r="J56" t="s">
+        <v>433</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s">
+        <v>49</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>434</v>
+      </c>
+      <c r="O56" t="s">
+        <v>58</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>412</v>
+      </c>
+      <c r="X56" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>435</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>436</v>
+      </c>
+      <c r="J57" t="s">
+        <v>437</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s">
+        <v>49</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
         <v>438</v>
       </c>
-      <c r="X48" t="s">
+      <c r="O57" t="s">
+        <v>65</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>412</v>
+      </c>
+      <c r="X57" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
         <v>439</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>440</v>
+      </c>
+      <c r="J58" t="s">
+        <v>441</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s">
+        <v>49</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>434</v>
+      </c>
+      <c r="O58" t="s">
+        <v>83</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>412</v>
+      </c>
+      <c r="X58" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>442</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>443</v>
+      </c>
+      <c r="J59" t="s">
+        <v>444</v>
+      </c>
+      <c r="K59" t="s">
+        <v>445</v>
+      </c>
+      <c r="L59" t="s">
+        <v>446</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
         <v>447</v>
+      </c>
+      <c r="X59" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>450</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>451</v>
+      </c>
+      <c r="J60" t="s">
+        <v>452</v>
+      </c>
+      <c r="K60" t="s">
+        <v>453</v>
+      </c>
+      <c r="L60" t="s">
+        <v>454</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>455</v>
+      </c>
+      <c r="O60" t="s">
+        <v>312</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>456</v>
+      </c>
+      <c r="X60" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>459</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>460</v>
+      </c>
+      <c r="J61" t="s">
+        <v>461</v>
+      </c>
+      <c r="K61" t="s">
+        <v>462</v>
+      </c>
+      <c r="L61" t="s">
+        <v>463</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>455</v>
+      </c>
+      <c r="O61" t="s">
+        <v>65</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>456</v>
+      </c>
+      <c r="X61" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>465</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>466</v>
+      </c>
+      <c r="J62" t="s">
+        <v>467</v>
+      </c>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s">
+        <v>49</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>468</v>
+      </c>
+      <c r="O62" t="s">
+        <v>65</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>456</v>
+      </c>
+      <c r="X62" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>469</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>470</v>
+      </c>
+      <c r="J63" t="s">
+        <v>471</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s">
+        <v>49</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>472</v>
+      </c>
+      <c r="O63" t="s">
+        <v>58</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>473</v>
+      </c>
+      <c r="X63" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>475</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>476</v>
+      </c>
+      <c r="J64" t="s">
+        <v>477</v>
+      </c>
+      <c r="K64" t="s">
+        <v>478</v>
+      </c>
+      <c r="L64" t="s">
+        <v>479</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>472</v>
+      </c>
+      <c r="O64" t="s">
+        <v>65</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>473</v>
+      </c>
+      <c r="X64" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>481</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>482</v>
+      </c>
+      <c r="J65" t="s">
+        <v>477</v>
+      </c>
+      <c r="K65" t="s">
+        <v>483</v>
+      </c>
+      <c r="L65" t="s">
+        <v>484</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>472</v>
+      </c>
+      <c r="O65" t="s">
+        <v>51</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>473</v>
+      </c>
+      <c r="X65" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>486</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>487</v>
+      </c>
+      <c r="J66" t="s">
+        <v>488</v>
+      </c>
+      <c r="K66" t="s">
+        <v>489</v>
+      </c>
+      <c r="L66" t="s">
+        <v>490</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>491</v>
+      </c>
+      <c r="X66" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>494</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>495</v>
+      </c>
+      <c r="J67" t="s">
+        <v>496</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s">
+        <v>49</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>497</v>
+      </c>
+      <c r="O67" t="s">
+        <v>83</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>498</v>
+      </c>
+      <c r="X67" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>500</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>501</v>
+      </c>
+      <c r="J68" t="s">
+        <v>502</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s">
+        <v>49</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>497</v>
+      </c>
+      <c r="O68" t="s">
+        <v>65</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>498</v>
+      </c>
+      <c r="X68" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>503</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>504</v>
+      </c>
+      <c r="J69" t="s">
+        <v>505</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s">
+        <v>49</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>497</v>
+      </c>
+      <c r="O69" t="s">
+        <v>83</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>506</v>
+      </c>
+      <c r="X69" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>508</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>509</v>
+      </c>
+      <c r="J70" t="s">
+        <v>510</v>
+      </c>
+      <c r="K70" t="s">
+        <v>511</v>
+      </c>
+      <c r="L70" t="s">
+        <v>512</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>513</v>
+      </c>
+      <c r="X70" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>516</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>517</v>
+      </c>
+      <c r="J71" t="s">
+        <v>518</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s">
+        <v>49</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>519</v>
+      </c>
+      <c r="O71" t="s">
+        <v>83</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>513</v>
+      </c>
+      <c r="X71" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>520</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>521</v>
+      </c>
+      <c r="J72" t="s">
+        <v>522</v>
+      </c>
+      <c r="K72" t="s">
+        <v>523</v>
+      </c>
+      <c r="L72" t="s">
+        <v>524</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>519</v>
+      </c>
+      <c r="O72" t="s">
+        <v>51</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>513</v>
+      </c>
+      <c r="X72" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>526</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>527</v>
+      </c>
+      <c r="J73" t="s">
+        <v>528</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s">
+        <v>49</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>519</v>
+      </c>
+      <c r="O73" t="s">
+        <v>65</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>529</v>
+      </c>
+      <c r="X73" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>531</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>532</v>
+      </c>
+      <c r="J74" t="s">
+        <v>533</v>
+      </c>
+      <c r="K74" t="s">
+        <v>534</v>
+      </c>
+      <c r="L74" t="s">
+        <v>535</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>536</v>
+      </c>
+      <c r="O74" t="s">
+        <v>65</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>529</v>
+      </c>
+      <c r="X74" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>538</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>539</v>
+      </c>
+      <c r="J75" t="s">
+        <v>540</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s">
+        <v>49</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>541</v>
+      </c>
+      <c r="O75" t="s">
+        <v>65</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>542</v>
+      </c>
+      <c r="X75" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>544</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>545</v>
+      </c>
+      <c r="J76" t="s">
+        <v>546</v>
+      </c>
+      <c r="K76" t="s">
+        <v>547</v>
+      </c>
+      <c r="L76" t="s">
+        <v>548</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>549</v>
+      </c>
+      <c r="O76" t="s">
+        <v>65</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>550</v>
+      </c>
+      <c r="X76" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>553</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>554</v>
+      </c>
+      <c r="J77" t="s">
+        <v>555</v>
+      </c>
+      <c r="K77" t="s">
+        <v>556</v>
+      </c>
+      <c r="L77" t="s">
+        <v>557</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>558</v>
+      </c>
+      <c r="X77" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>561</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>562</v>
+      </c>
+      <c r="J78" t="s">
+        <v>563</v>
+      </c>
+      <c r="K78" t="s">
+        <v>564</v>
+      </c>
+      <c r="L78" t="s">
+        <v>565</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>566</v>
+      </c>
+      <c r="O78" t="s">
+        <v>58</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>567</v>
+      </c>
+      <c r="X78" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>570</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>571</v>
+      </c>
+      <c r="J79" t="s">
+        <v>572</v>
+      </c>
+      <c r="K79" t="s">
+        <v>573</v>
+      </c>
+      <c r="L79" t="s">
+        <v>574</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>575</v>
+      </c>
+      <c r="O79" t="s">
+        <v>58</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>567</v>
+      </c>
+      <c r="X79" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>38057</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>577</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>578</v>
+      </c>
+      <c r="J80" t="s">
+        <v>579</v>
+      </c>
+      <c r="K80" t="s">
+        <v>580</v>
+      </c>
+      <c r="L80" t="s">
+        <v>581</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>567</v>
+      </c>
+      <c r="X80" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>
